--- a/benchmark/zk/Transactions_25tps_500tts_10.195.9.11.xlsx
+++ b/benchmark/zk/Transactions_25tps_500tts_10.195.9.11.xlsx
@@ -35,10 +35,10 @@
     <t>Total Time</t>
   </si>
   <si>
-    <t>160039.042 ms</t>
+    <t>60212.304 ms</t>
   </si>
   <si>
-    <t>2.915485894879241 tx/s</t>
+    <t>6.938854811401925 tx/s</t>
   </si>
 </sst>
 </file>
@@ -431,7 +431,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>157472</v>
+        <v>67287</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -439,7 +439,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>157204</v>
+        <v>67305</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -447,7 +447,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>157211</v>
+        <v>67299</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -455,7 +455,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>157489</v>
+        <v>67107</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -463,7 +463,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>157150</v>
+        <v>67315</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -471,7 +471,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>157158</v>
+        <v>67295</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -479,7 +479,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>157149</v>
+        <v>67100</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -487,7 +487,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>157216</v>
+        <v>67098</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -495,7 +495,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>157545</v>
+        <v>67310</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -503,7 +503,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>157196</v>
+        <v>67324</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -511,7 +511,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>157221</v>
+        <v>67327</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -519,7 +519,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>157161</v>
+        <v>67142</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -527,7 +527,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>157205</v>
+        <v>67281</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -535,7 +535,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>157149</v>
+        <v>67155</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -543,7 +543,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>157563</v>
+        <v>67352</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -551,7 +551,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>157460</v>
+        <v>67097</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -559,7 +559,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>157475</v>
+        <v>67141</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -567,7 +567,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>157554</v>
+        <v>67142</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -575,7 +575,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>157190</v>
+        <v>67347</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -583,7 +583,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>157472</v>
+        <v>67157</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -591,7 +591,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>157156</v>
+        <v>67156</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -599,7 +599,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>157177</v>
+        <v>67287</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -607,7 +607,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>157458</v>
+        <v>67321</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -615,7 +615,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>157162</v>
+        <v>67069</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -623,7 +623,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>157194</v>
+        <v>67275</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -631,7 +631,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>156289</v>
+        <v>66395</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -639,7 +639,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>156240</v>
+        <v>66402</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -647,7 +647,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>156452</v>
+        <v>66351</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -655,7 +655,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>156221</v>
+        <v>66691</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -663,7 +663,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>156460</v>
+        <v>66398</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -671,7 +671,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>156568</v>
+        <v>66181</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -679,7 +679,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>156239</v>
+        <v>66175</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -687,7 +687,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>156249</v>
+        <v>66158</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -695,7 +695,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>156443</v>
+        <v>66422</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -703,7 +703,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>156571</v>
+        <v>66668</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -711,7 +711,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>156437</v>
+        <v>66329</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -719,7 +719,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>156398</v>
+        <v>66362</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -727,7 +727,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>156429</v>
+        <v>66367</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -735,7 +735,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>156587</v>
+        <v>66167</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -743,7 +743,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>156294</v>
+        <v>66334</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -751,7 +751,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>156278</v>
+        <v>66352</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -759,7 +759,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>156245</v>
+        <v>66402</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -767,7 +767,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>156282</v>
+        <v>66370</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -775,7 +775,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>156289</v>
+        <v>66170</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -783,7 +783,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>156578</v>
+        <v>66373</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -791,7 +791,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>156414</v>
+        <v>66405</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -799,7 +799,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>156271</v>
+        <v>66355</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -807,7 +807,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>156217</v>
+        <v>66382</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -815,7 +815,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>156269</v>
+        <v>66155</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -823,7 +823,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>156234</v>
+        <v>66379</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -831,7 +831,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>155611</v>
+        <v>68684</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -839,7 +839,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>155173</v>
+        <v>68055</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -847,7 +847,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>155296</v>
+        <v>68108</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -855,7 +855,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>155602</v>
+        <v>68265</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -863,7 +863,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>155189</v>
+        <v>68132</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -871,7 +871,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>155232</v>
+        <v>68077</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -879,7 +879,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>155153</v>
+        <v>68052</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -887,7 +887,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>155249</v>
+        <v>68255</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -895,7 +895,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>155305</v>
+        <v>68706</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -903,7 +903,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>155231</v>
+        <v>68267</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -911,7 +911,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>155266</v>
+        <v>68173</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -919,7 +919,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>155288</v>
+        <v>68243</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -927,7 +927,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>155137</v>
+        <v>68339</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -935,7 +935,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>155166</v>
+        <v>68045</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -943,7 +943,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>155232</v>
+        <v>68587</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -951,7 +951,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>155302</v>
+        <v>68049</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -959,7 +959,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>155145</v>
+        <v>68695</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -967,7 +967,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>155590</v>
+        <v>68044</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -975,7 +975,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>155192</v>
+        <v>68267</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -983,7 +983,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>155295</v>
+        <v>68108</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -991,7 +991,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>155290</v>
+        <v>68238</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -999,7 +999,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>155297</v>
+        <v>68254</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -1007,7 +1007,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>155208</v>
+        <v>68272</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -1015,7 +1015,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>155202</v>
+        <v>68106</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -1023,7 +1023,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>155275</v>
+        <v>68244</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -1031,7 +1031,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>159724</v>
+        <v>69744</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -1039,7 +1039,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>159725</v>
+        <v>69225</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -1047,7 +1047,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>159545</v>
+        <v>69159</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -1055,7 +1055,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>159674</v>
+        <v>69159</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -1063,7 +1063,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>159637</v>
+        <v>69157</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -1071,7 +1071,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>159713</v>
+        <v>69156</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -1079,7 +1079,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>159691</v>
+        <v>69085</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1087,7 +1087,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>159665</v>
+        <v>69243</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -1095,7 +1095,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>159655</v>
+        <v>69190</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -1103,7 +1103,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>159720</v>
+        <v>69197</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -1111,7 +1111,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>159669</v>
+        <v>69171</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -1119,7 +1119,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>159643</v>
+        <v>69237</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -1127,7 +1127,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>159710</v>
+        <v>69171</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -1135,7 +1135,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>159689</v>
+        <v>69082</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -1143,7 +1143,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>159687</v>
+        <v>69755</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -1151,7 +1151,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>159659</v>
+        <v>69156</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -1159,7 +1159,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>159709</v>
+        <v>69170</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -1167,7 +1167,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>159642</v>
+        <v>69135</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -1175,7 +1175,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>159635</v>
+        <v>69107</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -1183,7 +1183,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>159582</v>
+        <v>69728</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -1191,7 +1191,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>159660</v>
+        <v>69108</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -1199,7 +1199,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>159645</v>
+        <v>69170</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -1207,7 +1207,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>159539</v>
+        <v>69115</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -1215,7 +1215,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>159626</v>
+        <v>69723</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -1223,7 +1223,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>159649</v>
+        <v>69167</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -1231,7 +1231,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>160581</v>
+        <v>58746</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -1239,7 +1239,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>160632</v>
+        <v>58857</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -1247,7 +1247,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>160589</v>
+        <v>58742</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -1255,7 +1255,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>160775</v>
+        <v>58972</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -1263,7 +1263,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>160582</v>
+        <v>58741</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -1271,7 +1271,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>160538</v>
+        <v>58965</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -1279,7 +1279,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>160588</v>
+        <v>58710</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -1287,7 +1287,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>160626</v>
+        <v>58970</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -1295,7 +1295,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>160589</v>
+        <v>58970</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -1303,7 +1303,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>160596</v>
+        <v>58993</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -1311,7 +1311,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>160613</v>
+        <v>58720</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -1319,7 +1319,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>160594</v>
+        <v>58854</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -1327,7 +1327,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>160540</v>
+        <v>58854</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -1335,7 +1335,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>160529</v>
+        <v>58997</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -1343,7 +1343,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>160630</v>
+        <v>58854</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -1351,7 +1351,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>160605</v>
+        <v>58968</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -1359,7 +1359,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>160611</v>
+        <v>58991</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -1367,7 +1367,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>160621</v>
+        <v>58968</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -1375,7 +1375,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>160544</v>
+        <v>58991</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -1383,7 +1383,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>160605</v>
+        <v>58990</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -1391,7 +1391,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>160579</v>
+        <v>58961</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -1399,7 +1399,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>160593</v>
+        <v>58966</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -1407,7 +1407,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>160621</v>
+        <v>58724</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -1415,7 +1415,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>160594</v>
+        <v>58713</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -1423,7 +1423,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>160533</v>
+        <v>58989</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -1431,7 +1431,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>165219</v>
+        <v>62206</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -1439,7 +1439,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>165223</v>
+        <v>62199</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -1447,7 +1447,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>165233</v>
+        <v>62351</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -1455,7 +1455,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>165531</v>
+        <v>62218</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -1463,7 +1463,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>165213</v>
+        <v>62192</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -1471,7 +1471,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>165240</v>
+        <v>63040</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -1479,7 +1479,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>165253</v>
+        <v>62208</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -1487,7 +1487,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>165254</v>
+        <v>62187</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -1495,7 +1495,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>165531</v>
+        <v>62303</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -1503,7 +1503,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>165238</v>
+        <v>62327</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -1511,7 +1511,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>165233</v>
+        <v>62224</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -1519,7 +1519,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>165219</v>
+        <v>62232</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -1527,7 +1527,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>165233</v>
+        <v>62211</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -1535,7 +1535,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>165532</v>
+        <v>62330</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -1543,7 +1543,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>165207</v>
+        <v>62895</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -1551,7 +1551,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>165204</v>
+        <v>62313</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -1559,7 +1559,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>165805</v>
+        <v>62336</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -1567,7 +1567,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>165255</v>
+        <v>62712</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -1575,7 +1575,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>165292</v>
+        <v>62350</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -1583,7 +1583,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>165292</v>
+        <v>62338</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -1591,7 +1591,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>165536</v>
+        <v>62305</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -1599,7 +1599,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>165524</v>
+        <v>62293</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -1607,7 +1607,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>165216</v>
+        <v>62354</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -1615,7 +1615,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>165534</v>
+        <v>62224</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -1623,7 +1623,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>165205</v>
+        <v>62313</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -1631,7 +1631,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>164803</v>
+        <v>61435</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -1639,7 +1639,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>164392</v>
+        <v>61378</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -1647,7 +1647,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>164380</v>
+        <v>61659</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -1655,7 +1655,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>164312</v>
+        <v>61431</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -1663,7 +1663,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>164353</v>
+        <v>61372</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -1671,7 +1671,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>164373</v>
+        <v>61239</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -1679,7 +1679,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>164294</v>
+        <v>61426</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -1687,7 +1687,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>164358</v>
+        <v>61393</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -1695,7 +1695,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>164302</v>
+        <v>61255</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -1703,7 +1703,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>164292</v>
+        <v>62061</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -1711,7 +1711,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>164310</v>
+        <v>61260</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -1719,7 +1719,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>164333</v>
+        <v>61265</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -1727,7 +1727,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>164358</v>
+        <v>61576</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -1735,7 +1735,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>164291</v>
+        <v>61439</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -1743,7 +1743,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>164342</v>
+        <v>61250</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -1751,7 +1751,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>164384</v>
+        <v>61235</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -1759,7 +1759,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>164296</v>
+        <v>61414</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -1767,7 +1767,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>164582</v>
+        <v>61357</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -1775,7 +1775,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>164285</v>
+        <v>61400</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -1783,7 +1783,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>164341</v>
+        <v>61412</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -1791,7 +1791,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>164357</v>
+        <v>61361</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -1799,7 +1799,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>164304</v>
+        <v>61403</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -1807,7 +1807,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>164396</v>
+        <v>61420</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -1815,7 +1815,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>164292</v>
+        <v>61367</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
@@ -1823,7 +1823,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>164297</v>
+        <v>61242</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -1831,7 +1831,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>167166</v>
+        <v>64507</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
@@ -1839,7 +1839,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>167162</v>
+        <v>64568</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -1847,7 +1847,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>167162</v>
+        <v>64537</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -1855,7 +1855,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>167162</v>
+        <v>64519</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -1863,7 +1863,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>167163</v>
+        <v>65247</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
@@ -1871,7 +1871,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>167858</v>
+        <v>64554</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
@@ -1879,7 +1879,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>167834</v>
+        <v>64147</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -1887,7 +1887,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>167162</v>
+        <v>64541</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -1895,7 +1895,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>167163</v>
+        <v>64684</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
@@ -1903,7 +1903,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>167849</v>
+        <v>64559</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
@@ -1911,7 +1911,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>167833</v>
+        <v>64581</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -1919,7 +1919,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>167162</v>
+        <v>64585</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -1927,7 +1927,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>167162</v>
+        <v>64576</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
@@ -1935,7 +1935,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>167492</v>
+        <v>64545</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
@@ -1943,7 +1943,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>167161</v>
+        <v>64492</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -1951,7 +1951,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>167161</v>
+        <v>64513</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -1959,7 +1959,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>167161</v>
+        <v>64487</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -1967,7 +1967,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>167162</v>
+        <v>64496</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -1975,7 +1975,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>167194</v>
+        <v>64550</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -1983,7 +1983,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>167160</v>
+        <v>64529</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -1991,7 +1991,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>167162</v>
+        <v>64521</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -1999,7 +1999,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>167852</v>
+        <v>64570</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -2007,7 +2007,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>167853</v>
+        <v>64500</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -2015,7 +2015,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>167160</v>
+        <v>64508</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
@@ -2023,7 +2023,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>167158</v>
+        <v>64685</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -2031,7 +2031,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>161462</v>
+        <v>57071</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -2039,7 +2039,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>161506</v>
+        <v>57049</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -2047,7 +2047,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>161469</v>
+        <v>57102</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -2055,7 +2055,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>161170</v>
+        <v>57015</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -2063,7 +2063,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>161493</v>
+        <v>57199</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
@@ -2071,7 +2071,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>161865</v>
+        <v>56952</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -2079,7 +2079,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>161508</v>
+        <v>57036</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
@@ -2087,7 +2087,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>161469</v>
+        <v>56992</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
@@ -2095,7 +2095,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>161500</v>
+        <v>57047</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
@@ -2103,7 +2103,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>161483</v>
+        <v>57055</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -2111,7 +2111,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>161523</v>
+        <v>57024</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -2119,7 +2119,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>161522</v>
+        <v>57029</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
@@ -2127,7 +2127,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>161533</v>
+        <v>57050</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
@@ -2135,7 +2135,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>161479</v>
+        <v>57094</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
@@ -2143,7 +2143,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>161453</v>
+        <v>57060</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
@@ -2151,7 +2151,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>161495</v>
+        <v>56844</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
@@ -2159,7 +2159,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>161494</v>
+        <v>57005</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
@@ -2167,7 +2167,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>161463</v>
+        <v>56579</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
@@ -2175,7 +2175,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>161538</v>
+        <v>57076</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
@@ -2183,7 +2183,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>161526</v>
+        <v>56906</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
@@ -2191,7 +2191,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>161510</v>
+        <v>56905</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
@@ -2199,7 +2199,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>161476</v>
+        <v>57072</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
@@ -2207,7 +2207,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>161475</v>
+        <v>57081</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
@@ -2215,7 +2215,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>161523</v>
+        <v>56904</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
@@ -2223,7 +2223,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>161737</v>
+        <v>57016</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
@@ -2231,7 +2231,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>154346</v>
+        <v>59685</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
@@ -2239,7 +2239,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>154323</v>
+        <v>59681</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
@@ -2247,7 +2247,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>154355</v>
+        <v>59655</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
@@ -2255,7 +2255,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>154829</v>
+        <v>59972</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
@@ -2263,7 +2263,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>154369</v>
+        <v>59542</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
@@ -2271,7 +2271,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>154331</v>
+        <v>59713</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
@@ -2279,7 +2279,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>154302</v>
+        <v>59537</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
@@ -2287,7 +2287,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>154353</v>
+        <v>59930</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
@@ -2295,7 +2295,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>154346</v>
+        <v>59693</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
@@ -2303,7 +2303,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>154366</v>
+        <v>59689</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
@@ -2311,7 +2311,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>154613</v>
+        <v>59547</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
@@ -2319,7 +2319,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>154307</v>
+        <v>59930</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
@@ -2327,7 +2327,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>154382</v>
+        <v>60224</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
@@ -2335,7 +2335,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>154320</v>
+        <v>60224</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
@@ -2343,7 +2343,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>154372</v>
+        <v>59929</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
@@ -2351,7 +2351,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>154623</v>
+        <v>59704</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
@@ -2359,7 +2359,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>154330</v>
+        <v>59530</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
@@ -2367,7 +2367,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>154331</v>
+        <v>59525</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
@@ -2375,7 +2375,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>154351</v>
+        <v>59658</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
@@ -2383,7 +2383,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>154353</v>
+        <v>59663</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
@@ -2391,7 +2391,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>154346</v>
+        <v>59675</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
@@ -2399,7 +2399,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>154352</v>
+        <v>59705</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
@@ -2407,7 +2407,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>154630</v>
+        <v>59676</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
@@ -2415,7 +2415,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>154827</v>
+        <v>59970</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
@@ -2423,7 +2423,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>154343</v>
+        <v>59707</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
@@ -2431,7 +2431,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>153855</v>
+        <v>57995</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
@@ -2439,7 +2439,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>153826</v>
+        <v>57851</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
@@ -2447,7 +2447,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>153825</v>
+        <v>57851</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
@@ -2455,7 +2455,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>153834</v>
+        <v>57851</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
@@ -2463,7 +2463,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>153834</v>
+        <v>57460</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
@@ -2471,7 +2471,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>153866</v>
+        <v>57850</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
@@ -2479,7 +2479,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>153847</v>
+        <v>57479</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
@@ -2487,7 +2487,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>153825</v>
+        <v>57432</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
@@ -2495,7 +2495,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>153853</v>
+        <v>58201</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
@@ -2503,7 +2503,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>153867</v>
+        <v>57566</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
@@ -2511,7 +2511,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>153885</v>
+        <v>57468</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
@@ -2519,7 +2519,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>153869</v>
+        <v>57849</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
@@ -2527,7 +2527,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>153832</v>
+        <v>57848</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
@@ -2535,7 +2535,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>153824</v>
+        <v>57849</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
@@ -2543,7 +2543,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>153823</v>
+        <v>58210</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
@@ -2551,7 +2551,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>153894</v>
+        <v>57848</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
@@ -2559,7 +2559,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>153821</v>
+        <v>58003</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
@@ -2567,7 +2567,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>153746</v>
+        <v>57848</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
@@ -2575,7 +2575,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>153860</v>
+        <v>57846</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
@@ -2583,7 +2583,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>153821</v>
+        <v>57846</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
@@ -2591,7 +2591,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>153840</v>
+        <v>57847</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
@@ -2599,7 +2599,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>153827</v>
+        <v>57444</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
@@ -2607,7 +2607,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>153876</v>
+        <v>57847</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
@@ -2615,7 +2615,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>153874</v>
+        <v>58006</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
@@ -2623,7 +2623,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>153889</v>
+        <v>57991</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
@@ -2631,7 +2631,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>151888</v>
+        <v>65183</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
@@ -2639,7 +2639,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>151906</v>
+        <v>65177</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
@@ -2647,7 +2647,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>151851</v>
+        <v>66266</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
@@ -2655,7 +2655,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>151872</v>
+        <v>65425</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
@@ -2663,7 +2663,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>151883</v>
+        <v>65916</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
@@ -2671,7 +2671,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>151890</v>
+        <v>65463</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
@@ -2679,7 +2679,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>151852</v>
+        <v>65431</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
@@ -2687,7 +2687,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>151849</v>
+        <v>65471</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
@@ -2695,7 +2695,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>151854</v>
+        <v>65439</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
@@ -2703,7 +2703,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>151896</v>
+        <v>65532</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
@@ -2711,7 +2711,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>151892</v>
+        <v>65473</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
@@ -2719,7 +2719,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>151878</v>
+        <v>65456</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
@@ -2727,7 +2727,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>151873</v>
+        <v>65459</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
@@ -2735,7 +2735,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>151857</v>
+        <v>65484</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
@@ -2743,7 +2743,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>151670</v>
+        <v>65464</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
@@ -2751,7 +2751,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>151860</v>
+        <v>65434</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
@@ -2759,7 +2759,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>151880</v>
+        <v>66280</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
@@ -2767,7 +2767,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>151855</v>
+        <v>65202</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
@@ -2775,7 +2775,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>151436</v>
+        <v>65441</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
@@ -2783,7 +2783,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>151864</v>
+        <v>65485</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
@@ -2791,7 +2791,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>151867</v>
+        <v>66254</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
@@ -2799,7 +2799,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>151888</v>
+        <v>65404</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
@@ -2807,7 +2807,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>151647</v>
+        <v>66269</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
@@ -2815,7 +2815,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>151861</v>
+        <v>65477</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
@@ -2823,7 +2823,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>151678</v>
+        <v>65454</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
@@ -2831,7 +2831,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>169797</v>
+        <v>60510</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
@@ -2839,7 +2839,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>169841</v>
+        <v>60537</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
@@ -2847,7 +2847,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>169214</v>
+        <v>60489</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
@@ -2855,7 +2855,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>169836</v>
+        <v>60664</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
@@ -2863,7 +2863,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>169836</v>
+        <v>60463</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
@@ -2871,7 +2871,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>169212</v>
+        <v>60650</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
@@ -2879,7 +2879,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>170004</v>
+        <v>60577</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
@@ -2887,7 +2887,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>169214</v>
+        <v>60658</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
@@ -2895,7 +2895,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>169836</v>
+        <v>60655</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
@@ -2903,7 +2903,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>169838</v>
+        <v>60476</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
@@ -2911,7 +2911,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>169833</v>
+        <v>61306</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
@@ -2919,7 +2919,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>169211</v>
+        <v>60525</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
@@ -2927,7 +2927,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>169832</v>
+        <v>60579</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
@@ -2935,7 +2935,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>169832</v>
+        <v>60457</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
@@ -2943,7 +2943,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>169211</v>
+        <v>60589</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
@@ -2951,7 +2951,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>169210</v>
+        <v>60513</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
@@ -2959,7 +2959,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>169211</v>
+        <v>60603</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
@@ -2967,7 +2967,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>169211</v>
+        <v>60651</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
@@ -2975,7 +2975,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>169840</v>
+        <v>60523</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
@@ -2983,7 +2983,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>169212</v>
+        <v>60568</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
@@ -2991,7 +2991,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>169208</v>
+        <v>60585</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
@@ -2999,7 +2999,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>169489</v>
+        <v>61219</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
@@ -3007,7 +3007,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>169830</v>
+        <v>60611</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
@@ -3015,7 +3015,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>169209</v>
+        <v>60455</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
@@ -3023,7 +3023,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>170028</v>
+        <v>60479</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
@@ -3031,7 +3031,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>158542</v>
+        <v>63158</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
@@ -3039,7 +3039,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>158726</v>
+        <v>64327</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
@@ -3047,7 +3047,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>158465</v>
+        <v>63159</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
@@ -3055,7 +3055,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>158428</v>
+        <v>63162</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
@@ -3063,7 +3063,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>158410</v>
+        <v>63291</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
@@ -3071,7 +3071,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>158432</v>
+        <v>63583</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
@@ -3079,7 +3079,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>158415</v>
+        <v>63589</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
@@ -3087,7 +3087,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>158413</v>
+        <v>63150</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
@@ -3095,7 +3095,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>158716</v>
+        <v>63297</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
@@ -3103,7 +3103,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>158539</v>
+        <v>63165</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
@@ -3111,7 +3111,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>158449</v>
+        <v>63140</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
@@ -3119,7 +3119,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>158722</v>
+        <v>64515</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
@@ -3127,7 +3127,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>158540</v>
+        <v>63170</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
@@ -3135,7 +3135,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>158440</v>
+        <v>63592</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
@@ -3143,7 +3143,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>158546</v>
+        <v>63595</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
@@ -3151,7 +3151,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>158457</v>
+        <v>63640</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
@@ -3159,7 +3159,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>158448</v>
+        <v>63297</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
@@ -3167,7 +3167,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>158963</v>
+        <v>63281</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
@@ -3175,7 +3175,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>158542</v>
+        <v>63891</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
@@ -3183,7 +3183,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>158394</v>
+        <v>63151</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
@@ -3191,7 +3191,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>158769</v>
+        <v>64319</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
@@ -3199,7 +3199,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>158454</v>
+        <v>63599</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
@@ -3207,7 +3207,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>158452</v>
+        <v>63627</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
@@ -3215,7 +3215,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>158712</v>
+        <v>63680</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
@@ -3223,7 +3223,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>158436</v>
+        <v>63632</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
@@ -3231,7 +3231,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>166207</v>
+        <v>51421</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
@@ -3239,7 +3239,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>166208</v>
+        <v>51307</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
@@ -3247,7 +3247,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>166206</v>
+        <v>51408</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
@@ -3255,7 +3255,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>166194</v>
+        <v>51197</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
@@ -3263,7 +3263,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>166206</v>
+        <v>51259</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
@@ -3271,7 +3271,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>166158</v>
+        <v>50367</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
@@ -3279,7 +3279,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>166206</v>
+        <v>51269</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
@@ -3287,7 +3287,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>166193</v>
+        <v>51264</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
@@ -3295,7 +3295,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>166204</v>
+        <v>51215</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
@@ -3303,7 +3303,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>166211</v>
+        <v>51196</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
@@ -3311,7 +3311,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>166192</v>
+        <v>51275</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
@@ -3319,7 +3319,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>166155</v>
+        <v>51027</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
@@ -3327,7 +3327,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>166189</v>
+        <v>51007</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
@@ -3335,7 +3335,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>166202</v>
+        <v>51298</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
@@ -3343,7 +3343,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>166187</v>
+        <v>50358</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
@@ -3351,7 +3351,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>167014</v>
+        <v>51286</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
@@ -3359,7 +3359,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>166810</v>
+        <v>51200</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
@@ -3367,7 +3367,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>166190</v>
+        <v>51243</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
@@ -3375,7 +3375,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>166189</v>
+        <v>51250</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
@@ -3383,7 +3383,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>166811</v>
+        <v>51280</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
@@ -3391,7 +3391,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>166200</v>
+        <v>50370</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
@@ -3399,7 +3399,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>166189</v>
+        <v>51291</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
@@ -3407,7 +3407,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>166525</v>
+        <v>51236</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
@@ -3415,7 +3415,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>166185</v>
+        <v>51030</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
@@ -3423,7 +3423,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>166185</v>
+        <v>51191</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
@@ -3431,7 +3431,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>152827</v>
+        <v>55839</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
@@ -3439,7 +3439,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>152929</v>
+        <v>56108</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
@@ -3447,7 +3447,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>152826</v>
+        <v>55839</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
@@ -3455,7 +3455,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>152826</v>
+        <v>55838</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
@@ -3463,7 +3463,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>152818</v>
+        <v>56207</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
@@ -3471,7 +3471,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>152784</v>
+        <v>55837</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
@@ -3479,7 +3479,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>152818</v>
+        <v>55838</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
@@ -3487,7 +3487,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>152850</v>
+        <v>56164</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
@@ -3495,7 +3495,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>152826</v>
+        <v>55837</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
@@ -3503,7 +3503,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>152818</v>
+        <v>56132</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
@@ -3511,7 +3511,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>152826</v>
+        <v>56117</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
@@ -3519,7 +3519,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>152846</v>
+        <v>56168</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
@@ -3527,7 +3527,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>152936</v>
+        <v>55837</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
@@ -3535,7 +3535,7 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>152844</v>
+        <v>55837</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
@@ -3543,7 +3543,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>152817</v>
+        <v>56145</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
@@ -3551,7 +3551,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>152825</v>
+        <v>55835</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
@@ -3559,7 +3559,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>152839</v>
+        <v>56448</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
@@ -3567,7 +3567,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>152628</v>
+        <v>55900</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
@@ -3575,7 +3575,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>152845</v>
+        <v>55836</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
@@ -3583,7 +3583,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>152825</v>
+        <v>55835</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
@@ -3591,7 +3591,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>152839</v>
+        <v>55838</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
@@ -3599,7 +3599,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>152850</v>
+        <v>56127</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
@@ -3607,7 +3607,7 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>152637</v>
+        <v>56083</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
@@ -3615,7 +3615,7 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>152848</v>
+        <v>55835</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
@@ -3623,7 +3623,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>152837</v>
+        <v>56121</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
@@ -3631,7 +3631,7 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>168831</v>
+        <v>52169</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
@@ -3639,7 +3639,7 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>168829</v>
+        <v>52426</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
@@ -3647,7 +3647,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>168206</v>
+        <v>52019</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
@@ -3655,7 +3655,7 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>168670</v>
+        <v>51811</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
@@ -3663,7 +3663,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>168206</v>
+        <v>52234</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
@@ -3671,7 +3671,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>168204</v>
+        <v>52121</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
@@ -3679,7 +3679,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>168730</v>
+        <v>52176</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
@@ -3687,7 +3687,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>168788</v>
+        <v>52115</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
@@ -3695,7 +3695,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>168833</v>
+        <v>52058</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
@@ -3703,7 +3703,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>168835</v>
+        <v>52424</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
@@ -3711,7 +3711,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>168828</v>
+        <v>52161</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
@@ -3719,7 +3719,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>168838</v>
+        <v>52423</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
@@ -3727,7 +3727,7 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>169032</v>
+        <v>51811</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
@@ -3735,7 +3735,7 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>168202</v>
+        <v>52240</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
@@ -3743,7 +3743,7 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>168202</v>
+        <v>52178</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
@@ -3751,7 +3751,7 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>169028</v>
+        <v>52423</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
@@ -3759,7 +3759,7 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>168504</v>
+        <v>52185</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
@@ -3767,7 +3767,7 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>168201</v>
+        <v>52424</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
@@ -3775,7 +3775,7 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>168829</v>
+        <v>52227</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
@@ -3783,7 +3783,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>168201</v>
+        <v>52215</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
@@ -3791,7 +3791,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>168833</v>
+        <v>52221</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
@@ -3799,7 +3799,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>168166</v>
+        <v>52153</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
@@ -3807,7 +3807,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>168199</v>
+        <v>52045</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
@@ -3815,7 +3815,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>169029</v>
+        <v>52148</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
@@ -3823,7 +3823,7 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>168823</v>
+        <v>52422</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
@@ -3831,7 +3831,7 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>150923</v>
+        <v>53145</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
@@ -3839,7 +3839,7 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>150920</v>
+        <v>53429</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
@@ -3847,7 +3847,7 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>150922</v>
+        <v>53149</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
@@ -3855,7 +3855,7 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>150760</v>
+        <v>52941</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
@@ -3863,7 +3863,7 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>150738</v>
+        <v>53081</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
@@ -3871,7 +3871,7 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>150758</v>
+        <v>53097</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
@@ -3879,7 +3879,7 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>150921</v>
+        <v>53026</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
@@ -3887,7 +3887,7 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>150437</v>
+        <v>53101</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
@@ -3895,7 +3895,7 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>150753</v>
+        <v>53233</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
@@ -3903,7 +3903,7 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>150754</v>
+        <v>53428</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
@@ -3911,7 +3911,7 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>150753</v>
+        <v>53428</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
@@ -3919,7 +3919,7 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>150926</v>
+        <v>53463</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
@@ -3927,7 +3927,7 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>150893</v>
+        <v>53056</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
@@ -3935,7 +3935,7 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>150920</v>
+        <v>53118</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
@@ -3943,7 +3943,7 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>150871</v>
+        <v>53091</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
@@ -3951,7 +3951,7 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>150808</v>
+        <v>53077</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
@@ -3959,7 +3959,7 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>150750</v>
+        <v>53107</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
@@ -3967,7 +3967,7 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>150920</v>
+        <v>53426</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
@@ -3975,7 +3975,7 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>150942</v>
+        <v>53112</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
@@ -3983,7 +3983,7 @@
         <v>444</v>
       </c>
       <c r="B446">
-        <v>150682</v>
+        <v>53427</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
@@ -3991,7 +3991,7 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>150807</v>
+        <v>53426</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
@@ -3999,7 +3999,7 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>150921</v>
+        <v>53428</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
@@ -4007,7 +4007,7 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>150736</v>
+        <v>53031</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
@@ -4015,7 +4015,7 @@
         <v>448</v>
       </c>
       <c r="B450">
-        <v>150751</v>
+        <v>53427</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
@@ -4023,7 +4023,7 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>150740</v>
+        <v>53427</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
@@ -4031,7 +4031,7 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>162653</v>
+        <v>54972</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
@@ -4039,7 +4039,7 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>162644</v>
+        <v>54899</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
@@ -4047,7 +4047,7 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>162657</v>
+        <v>54899</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
@@ -4055,7 +4055,7 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>162704</v>
+        <v>54948</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
@@ -4063,7 +4063,7 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>162722</v>
+        <v>55588</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
@@ -4071,7 +4071,7 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>162668</v>
+        <v>54947</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
@@ -4079,7 +4079,7 @@
         <v>456</v>
       </c>
       <c r="B458">
-        <v>162743</v>
+        <v>54971</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
@@ -4087,7 +4087,7 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>162812</v>
+        <v>54975</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
@@ -4095,7 +4095,7 @@
         <v>458</v>
       </c>
       <c r="B460">
-        <v>162817</v>
+        <v>55435</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
@@ -4103,7 +4103,7 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>162666</v>
+        <v>54947</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
@@ -4111,7 +4111,7 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>162658</v>
+        <v>54987</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
@@ -4119,7 +4119,7 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>162735</v>
+        <v>54896</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
@@ -4127,7 +4127,7 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>162725</v>
+        <v>54897</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
@@ -4135,7 +4135,7 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>162743</v>
+        <v>54896</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
@@ -4143,7 +4143,7 @@
         <v>464</v>
       </c>
       <c r="B466">
-        <v>162689</v>
+        <v>55203</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
@@ -4151,7 +4151,7 @@
         <v>465</v>
       </c>
       <c r="B467">
-        <v>162653</v>
+        <v>54972</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
@@ -4159,7 +4159,7 @@
         <v>466</v>
       </c>
       <c r="B468">
-        <v>162735</v>
+        <v>55191</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
@@ -4167,7 +4167,7 @@
         <v>467</v>
       </c>
       <c r="B469">
-        <v>162680</v>
+        <v>54975</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
@@ -4175,7 +4175,7 @@
         <v>468</v>
       </c>
       <c r="B470">
-        <v>162867</v>
+        <v>54937</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
@@ -4183,7 +4183,7 @@
         <v>469</v>
       </c>
       <c r="B471">
-        <v>162681</v>
+        <v>54966</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
@@ -4191,7 +4191,7 @@
         <v>470</v>
       </c>
       <c r="B472">
-        <v>162721</v>
+        <v>54935</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
@@ -4199,7 +4199,7 @@
         <v>471</v>
       </c>
       <c r="B473">
-        <v>162722</v>
+        <v>54942</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
@@ -4207,7 +4207,7 @@
         <v>472</v>
       </c>
       <c r="B474">
-        <v>163095</v>
+        <v>54975</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
@@ -4215,7 +4215,7 @@
         <v>473</v>
       </c>
       <c r="B475">
-        <v>162667</v>
+        <v>55430</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
@@ -4223,7 +4223,7 @@
         <v>474</v>
       </c>
       <c r="B476">
-        <v>162741</v>
+        <v>54968</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
@@ -4231,7 +4231,7 @@
         <v>475</v>
       </c>
       <c r="B477">
-        <v>163597</v>
+        <v>54582</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
@@ -4239,7 +4239,7 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>163792</v>
+        <v>54077</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
@@ -4247,7 +4247,7 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>163792</v>
+        <v>54437</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
@@ -4255,7 +4255,7 @@
         <v>478</v>
       </c>
       <c r="B480">
-        <v>163394</v>
+        <v>54095</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
@@ -4263,7 +4263,7 @@
         <v>479</v>
       </c>
       <c r="B481">
-        <v>163612</v>
+        <v>54219</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
@@ -4271,7 +4271,7 @@
         <v>480</v>
       </c>
       <c r="B482">
-        <v>163603</v>
+        <v>54265</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
@@ -4279,7 +4279,7 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>164192</v>
+        <v>54214</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
@@ -4287,7 +4287,7 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>163603</v>
+        <v>53937</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
@@ -4295,7 +4295,7 @@
         <v>483</v>
       </c>
       <c r="B485">
-        <v>163392</v>
+        <v>53984</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
@@ -4303,7 +4303,7 @@
         <v>484</v>
       </c>
       <c r="B486">
-        <v>163610</v>
+        <v>53931</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
@@ -4311,7 +4311,7 @@
         <v>485</v>
       </c>
       <c r="B487">
-        <v>163605</v>
+        <v>54330</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
@@ -4319,7 +4319,7 @@
         <v>486</v>
       </c>
       <c r="B488">
-        <v>164101</v>
+        <v>54000</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
@@ -4327,7 +4327,7 @@
         <v>487</v>
       </c>
       <c r="B489">
-        <v>163644</v>
+        <v>54082</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
@@ -4335,7 +4335,7 @@
         <v>488</v>
       </c>
       <c r="B490">
-        <v>163599</v>
+        <v>54215</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
@@ -4343,7 +4343,7 @@
         <v>489</v>
       </c>
       <c r="B491">
-        <v>163600</v>
+        <v>54424</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
@@ -4351,7 +4351,7 @@
         <v>490</v>
       </c>
       <c r="B492">
-        <v>163390</v>
+        <v>54015</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
@@ -4359,7 +4359,7 @@
         <v>491</v>
       </c>
       <c r="B493">
-        <v>163607</v>
+        <v>53934</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
@@ -4367,7 +4367,7 @@
         <v>492</v>
       </c>
       <c r="B494">
-        <v>163405</v>
+        <v>54227</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
@@ -4375,7 +4375,7 @@
         <v>493</v>
       </c>
       <c r="B495">
-        <v>163633</v>
+        <v>54008</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
@@ -4383,7 +4383,7 @@
         <v>494</v>
       </c>
       <c r="B496">
-        <v>163630</v>
+        <v>54001</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
@@ -4391,7 +4391,7 @@
         <v>495</v>
       </c>
       <c r="B497">
-        <v>163396</v>
+        <v>53925</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
@@ -4399,7 +4399,7 @@
         <v>496</v>
       </c>
       <c r="B498">
-        <v>163417</v>
+        <v>53984</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
@@ -4407,7 +4407,7 @@
         <v>497</v>
       </c>
       <c r="B499">
-        <v>163573</v>
+        <v>54195</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
@@ -4415,7 +4415,7 @@
         <v>498</v>
       </c>
       <c r="B500">
-        <v>163630</v>
+        <v>53925</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
@@ -4423,7 +4423,7 @@
         <v>499</v>
       </c>
       <c r="B501">
-        <v>163605</v>
+        <v>54217</v>
       </c>
     </row>
   </sheetData>
@@ -4468,7 +4468,7 @@
         <v>8</v>
       </c>
       <c r="E2">
-        <v>171.498</v>
+        <v>72.058</v>
       </c>
     </row>
   </sheetData>

--- a/benchmark/zk/Transactions_25tps_500tts_10.195.9.11.xlsx
+++ b/benchmark/zk/Transactions_25tps_500tts_10.195.9.11.xlsx
@@ -35,10 +35,10 @@
     <t>Total Time</t>
   </si>
   <si>
-    <t>60212.304 ms</t>
+    <t>20013.496 ms</t>
   </si>
   <si>
-    <t>6.938854811401925 tx/s</t>
+    <t>15.74307304785894 tx/s</t>
   </si>
 </sst>
 </file>
@@ -431,7 +431,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>67287</v>
+        <v>26574</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -439,7 +439,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>67305</v>
+        <v>26169</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -447,7 +447,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>67299</v>
+        <v>26170</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -455,7 +455,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>67107</v>
+        <v>26143</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -463,7 +463,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>67315</v>
+        <v>26191</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -471,7 +471,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>67295</v>
+        <v>26544</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -479,7 +479,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>67100</v>
+        <v>26149</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -487,7 +487,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>67098</v>
+        <v>26192</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -495,7 +495,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>67310</v>
+        <v>26569</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -503,7 +503,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>67324</v>
+        <v>26149</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -511,7 +511,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>67327</v>
+        <v>26170</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -519,7 +519,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>67142</v>
+        <v>26151</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -527,7 +527,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>67281</v>
+        <v>26142</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -535,7 +535,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>67155</v>
+        <v>26568</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -543,7 +543,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>67352</v>
+        <v>26153</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -551,7 +551,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>67097</v>
+        <v>26172</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -559,7 +559,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>67141</v>
+        <v>26565</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -567,7 +567,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>67142</v>
+        <v>26175</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -575,7 +575,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>67347</v>
+        <v>26138</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -583,7 +583,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>67157</v>
+        <v>26157</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -591,7 +591,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>67156</v>
+        <v>26159</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -599,7 +599,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>67287</v>
+        <v>26176</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -607,7 +607,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>67321</v>
+        <v>26179</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -615,7 +615,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>67069</v>
+        <v>26518</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -623,7 +623,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>67275</v>
+        <v>26183</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -631,7 +631,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>66395</v>
+        <v>28135</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -639,7 +639,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>66402</v>
+        <v>28133</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -647,7 +647,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>66351</v>
+        <v>28133</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -655,7 +655,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>66691</v>
+        <v>28646</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -663,7 +663,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>66398</v>
+        <v>28594</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -671,7 +671,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>66181</v>
+        <v>28628</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -679,7 +679,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>66175</v>
+        <v>28648</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -687,7 +687,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>66158</v>
+        <v>28130</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -695,7 +695,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>66422</v>
+        <v>28131</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -703,7 +703,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>66668</v>
+        <v>28649</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -711,7 +711,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>66329</v>
+        <v>28131</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -719,7 +719,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>66362</v>
+        <v>28129</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -727,7 +727,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>66367</v>
+        <v>28585</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -735,7 +735,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>66167</v>
+        <v>28586</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -743,7 +743,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>66334</v>
+        <v>28645</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -751,7 +751,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>66352</v>
+        <v>28131</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -759,7 +759,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>66402</v>
+        <v>28647</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -767,7 +767,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>66370</v>
+        <v>28654</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -775,7 +775,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>66170</v>
+        <v>28628</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -783,7 +783,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>66373</v>
+        <v>28088</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -791,7 +791,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>66405</v>
+        <v>28642</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -799,7 +799,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>66355</v>
+        <v>28642</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -807,7 +807,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>66382</v>
+        <v>28129</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -815,7 +815,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>66155</v>
+        <v>28649</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -823,7 +823,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>66379</v>
+        <v>28126</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -831,7 +831,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>68684</v>
+        <v>23413</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -839,7 +839,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>68055</v>
+        <v>23349</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -847,7 +847,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>68108</v>
+        <v>23339</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -855,7 +855,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>68265</v>
+        <v>23364</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -863,7 +863,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>68132</v>
+        <v>23403</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -871,7 +871,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>68077</v>
+        <v>23405</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -879,7 +879,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>68052</v>
+        <v>23505</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -887,7 +887,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>68255</v>
+        <v>23353</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -895,7 +895,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>68706</v>
+        <v>23379</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -903,7 +903,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>68267</v>
+        <v>23369</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -911,7 +911,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>68173</v>
+        <v>23382</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -919,7 +919,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>68243</v>
+        <v>23386</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -927,7 +927,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>68339</v>
+        <v>23359</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -935,7 +935,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>68045</v>
+        <v>23388</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -943,7 +943,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>68587</v>
+        <v>23395</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -951,7 +951,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>68049</v>
+        <v>23355</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -959,7 +959,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>68695</v>
+        <v>23501</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -967,7 +967,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>68044</v>
+        <v>23376</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -975,7 +975,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>68267</v>
+        <v>23374</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -983,7 +983,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>68108</v>
+        <v>23342</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -991,7 +991,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>68238</v>
+        <v>23397</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -999,7 +999,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>68254</v>
+        <v>23355</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -1007,7 +1007,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>68272</v>
+        <v>23332</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -1015,7 +1015,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>68106</v>
+        <v>23709</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -1023,7 +1023,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>68244</v>
+        <v>23407</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -1031,7 +1031,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>69744</v>
+        <v>25244</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -1039,7 +1039,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>69225</v>
+        <v>25227</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -1047,7 +1047,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>69159</v>
+        <v>25196</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -1055,7 +1055,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>69159</v>
+        <v>25204</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -1063,7 +1063,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>69157</v>
+        <v>25264</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -1071,7 +1071,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>69156</v>
+        <v>25192</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -1079,7 +1079,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>69085</v>
+        <v>25248</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1087,7 +1087,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>69243</v>
+        <v>25251</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -1095,7 +1095,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>69190</v>
+        <v>25255</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -1103,7 +1103,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>69197</v>
+        <v>25237</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -1111,7 +1111,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>69171</v>
+        <v>25243</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -1119,7 +1119,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>69237</v>
+        <v>25730</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -1127,7 +1127,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>69171</v>
+        <v>25214</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -1135,7 +1135,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>69082</v>
+        <v>25204</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -1143,7 +1143,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>69755</v>
+        <v>25211</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -1151,7 +1151,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>69156</v>
+        <v>25256</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -1159,7 +1159,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>69170</v>
+        <v>25208</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -1167,7 +1167,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>69135</v>
+        <v>25188</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -1175,7 +1175,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>69107</v>
+        <v>25221</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -1183,7 +1183,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>69728</v>
+        <v>25236</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -1191,7 +1191,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>69108</v>
+        <v>25217</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -1199,7 +1199,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>69170</v>
+        <v>25196</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -1207,7 +1207,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>69115</v>
+        <v>25503</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -1215,7 +1215,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>69723</v>
+        <v>25259</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -1223,7 +1223,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>69167</v>
+        <v>25238</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -1231,7 +1231,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>58746</v>
+        <v>18679</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -1239,7 +1239,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>58857</v>
+        <v>18658</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -1247,7 +1247,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>58742</v>
+        <v>18720</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -1255,7 +1255,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>58972</v>
+        <v>18727</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -1263,7 +1263,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>58741</v>
+        <v>18681</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -1271,7 +1271,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>58965</v>
+        <v>18722</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -1279,7 +1279,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>58710</v>
+        <v>18730</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -1287,7 +1287,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>58970</v>
+        <v>18688</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -1295,7 +1295,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>58970</v>
+        <v>18671</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -1303,7 +1303,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>58993</v>
+        <v>18660</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -1311,7 +1311,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>58720</v>
+        <v>18668</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -1319,7 +1319,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>58854</v>
+        <v>18674</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -1327,7 +1327,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>58854</v>
+        <v>18736</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -1335,7 +1335,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>58997</v>
+        <v>18691</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -1343,7 +1343,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>58854</v>
+        <v>18704</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -1351,7 +1351,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>58968</v>
+        <v>18715</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -1359,7 +1359,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>58991</v>
+        <v>18731</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -1367,7 +1367,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>58968</v>
+        <v>18707</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -1375,7 +1375,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>58991</v>
+        <v>18664</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -1383,7 +1383,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>58990</v>
+        <v>18697</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -1391,7 +1391,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>58961</v>
+        <v>18387</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -1399,7 +1399,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>58966</v>
+        <v>18695</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -1407,7 +1407,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>58724</v>
+        <v>18699</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -1415,7 +1415,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>58713</v>
+        <v>18682</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -1423,7 +1423,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>58989</v>
+        <v>18710</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -1431,7 +1431,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>62206</v>
+        <v>17791</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -1439,7 +1439,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>62199</v>
+        <v>17806</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -1447,7 +1447,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>62351</v>
+        <v>17401</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -1455,7 +1455,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>62218</v>
+        <v>17812</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -1463,7 +1463,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>62192</v>
+        <v>17746</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -1471,7 +1471,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>63040</v>
+        <v>17800</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -1479,7 +1479,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>62208</v>
+        <v>17656</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -1487,7 +1487,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>62187</v>
+        <v>17799</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -1495,7 +1495,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>62303</v>
+        <v>17749</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -1503,7 +1503,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>62327</v>
+        <v>17764</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -1511,7 +1511,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>62224</v>
+        <v>17771</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -1519,7 +1519,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>62232</v>
+        <v>17807</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -1527,7 +1527,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>62211</v>
+        <v>17755</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -1535,7 +1535,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>62330</v>
+        <v>17389</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -1543,7 +1543,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>62895</v>
+        <v>17800</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -1551,7 +1551,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>62313</v>
+        <v>17396</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -1559,7 +1559,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>62336</v>
+        <v>17757</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -1567,7 +1567,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>62712</v>
+        <v>17777</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -1575,7 +1575,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>62350</v>
+        <v>17767</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -1583,7 +1583,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>62338</v>
+        <v>17782</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -1591,7 +1591,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>62305</v>
+        <v>17773</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -1599,7 +1599,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>62293</v>
+        <v>17760</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -1607,7 +1607,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>62354</v>
+        <v>17740</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -1615,7 +1615,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>62224</v>
+        <v>17742</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -1623,7 +1623,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>62313</v>
+        <v>17738</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -1631,7 +1631,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>61435</v>
+        <v>21750</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -1639,7 +1639,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>61378</v>
+        <v>21760</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -1647,7 +1647,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>61659</v>
+        <v>21884</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -1655,7 +1655,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>61431</v>
+        <v>21791</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -1663,7 +1663,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>61372</v>
+        <v>21787</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -1671,7 +1671,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>61239</v>
+        <v>21773</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -1679,7 +1679,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>61426</v>
+        <v>21762</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -1687,7 +1687,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>61393</v>
+        <v>21207</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -1695,7 +1695,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>61255</v>
+        <v>21801</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -1703,7 +1703,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>62061</v>
+        <v>21767</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -1711,7 +1711,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>61260</v>
+        <v>21758</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -1719,7 +1719,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>61265</v>
+        <v>21807</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -1727,7 +1727,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>61576</v>
+        <v>21776</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -1735,7 +1735,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>61439</v>
+        <v>21753</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -1743,7 +1743,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>61250</v>
+        <v>21347</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -1751,7 +1751,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>61235</v>
+        <v>21781</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -1759,7 +1759,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>61414</v>
+        <v>21817</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -1767,7 +1767,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>61357</v>
+        <v>21817</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -1775,7 +1775,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>61400</v>
+        <v>21343</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -1783,7 +1783,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>61412</v>
+        <v>21816</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -1791,7 +1791,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>61361</v>
+        <v>21902</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -1799,7 +1799,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>61403</v>
+        <v>21782</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -1807,7 +1807,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>61420</v>
+        <v>21775</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -1815,7 +1815,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>61367</v>
+        <v>21793</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
@@ -1823,7 +1823,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>61242</v>
+        <v>21796</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -1831,7 +1831,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>64507</v>
+        <v>27134</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
@@ -1839,7 +1839,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>64568</v>
+        <v>27583</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -1847,7 +1847,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>64537</v>
+        <v>27133</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -1855,7 +1855,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>64519</v>
+        <v>27617</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -1863,7 +1863,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>65247</v>
+        <v>27127</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
@@ -1871,7 +1871,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>64554</v>
+        <v>27719</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
@@ -1879,7 +1879,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>64147</v>
+        <v>27589</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -1887,7 +1887,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>64541</v>
+        <v>27608</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -1895,7 +1895,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>64684</v>
+        <v>27132</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
@@ -1903,7 +1903,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>64559</v>
+        <v>27959</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
@@ -1911,7 +1911,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>64581</v>
+        <v>27593</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -1919,7 +1919,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>64585</v>
+        <v>27596</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -1927,7 +1927,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>64576</v>
+        <v>27131</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
@@ -1935,7 +1935,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>64545</v>
+        <v>27131</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
@@ -1943,7 +1943,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>64492</v>
+        <v>27132</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -1951,7 +1951,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>64513</v>
+        <v>27598</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -1959,7 +1959,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>64487</v>
+        <v>27610</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -1967,7 +1967,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>64496</v>
+        <v>27519</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -1975,7 +1975,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>64550</v>
+        <v>27123</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -1983,7 +1983,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>64529</v>
+        <v>27575</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -1991,7 +1991,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>64521</v>
+        <v>27144</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -1999,7 +1999,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>64570</v>
+        <v>27607</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -2007,7 +2007,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>64500</v>
+        <v>27580</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -2015,7 +2015,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>64508</v>
+        <v>27600</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
@@ -2023,7 +2023,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>64685</v>
+        <v>27587</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -2031,7 +2031,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>57071</v>
+        <v>16406</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -2039,7 +2039,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>57049</v>
+        <v>16063</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -2047,7 +2047,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>57102</v>
+        <v>16882</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -2055,7 +2055,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>57015</v>
+        <v>16844</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -2063,7 +2063,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>57199</v>
+        <v>16923</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
@@ -2071,7 +2071,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>56952</v>
+        <v>16809</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -2079,7 +2079,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>57036</v>
+        <v>16516</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
@@ -2087,7 +2087,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>56992</v>
+        <v>16846</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
@@ -2095,7 +2095,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>57047</v>
+        <v>16886</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
@@ -2103,7 +2103,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>57055</v>
+        <v>16849</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -2111,7 +2111,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>57024</v>
+        <v>16830</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -2119,7 +2119,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>57029</v>
+        <v>16851</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
@@ -2127,7 +2127,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>57050</v>
+        <v>16874</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
@@ -2135,7 +2135,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>57094</v>
+        <v>16834</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
@@ -2143,7 +2143,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>57060</v>
+        <v>16856</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
@@ -2151,7 +2151,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>56844</v>
+        <v>16919</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
@@ -2159,7 +2159,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>57005</v>
+        <v>16877</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
@@ -2167,7 +2167,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>56579</v>
+        <v>16876</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
@@ -2175,7 +2175,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>57076</v>
+        <v>16517</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
@@ -2183,7 +2183,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>56906</v>
+        <v>16835</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
@@ -2191,7 +2191,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>56905</v>
+        <v>16861</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
@@ -2199,7 +2199,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>57072</v>
+        <v>16878</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
@@ -2207,7 +2207,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>57081</v>
+        <v>16822</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
@@ -2215,7 +2215,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>56904</v>
+        <v>16807</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
@@ -2223,7 +2223,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>57016</v>
+        <v>16515</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
@@ -2231,7 +2231,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>59685</v>
+        <v>14881</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
@@ -2239,7 +2239,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>59681</v>
+        <v>14129</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
@@ -2247,7 +2247,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>59655</v>
+        <v>14075</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
@@ -2255,7 +2255,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>59972</v>
+        <v>14085</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
@@ -2263,7 +2263,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>59542</v>
+        <v>14105</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
@@ -2271,7 +2271,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>59713</v>
+        <v>14131</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
@@ -2279,7 +2279,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>59537</v>
+        <v>14088</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
@@ -2287,7 +2287,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>59930</v>
+        <v>14112</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
@@ -2295,7 +2295,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>59693</v>
+        <v>14102</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
@@ -2303,7 +2303,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>59689</v>
+        <v>14540</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
@@ -2311,7 +2311,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>59547</v>
+        <v>14077</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
@@ -2319,7 +2319,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>59930</v>
+        <v>14121</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
@@ -2327,7 +2327,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>60224</v>
+        <v>14117</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
@@ -2335,7 +2335,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>60224</v>
+        <v>14090</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
@@ -2343,7 +2343,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>59929</v>
+        <v>14455</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
@@ -2351,7 +2351,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>59704</v>
+        <v>14109</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
@@ -2359,7 +2359,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>59530</v>
+        <v>14124</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
@@ -2367,7 +2367,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>59525</v>
+        <v>14891</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
@@ -2375,7 +2375,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>59658</v>
+        <v>14908</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
@@ -2383,7 +2383,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>59663</v>
+        <v>14079</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
@@ -2391,7 +2391,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>59675</v>
+        <v>14095</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
@@ -2399,7 +2399,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>59705</v>
+        <v>14539</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
@@ -2407,7 +2407,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>59676</v>
+        <v>14906</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
@@ -2415,7 +2415,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>59970</v>
+        <v>14069</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
@@ -2423,7 +2423,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>59707</v>
+        <v>14091</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
@@ -2431,7 +2431,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>57995</v>
+        <v>24976</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
@@ -2439,7 +2439,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>57851</v>
+        <v>24265</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
@@ -2447,7 +2447,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>57851</v>
+        <v>24263</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
@@ -2455,7 +2455,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>57851</v>
+        <v>24315</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
@@ -2463,7 +2463,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>57460</v>
+        <v>24724</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
@@ -2471,7 +2471,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>57850</v>
+        <v>24330</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
@@ -2479,7 +2479,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>57479</v>
+        <v>24506</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
@@ -2487,7 +2487,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>57432</v>
+        <v>24331</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
@@ -2495,7 +2495,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>58201</v>
+        <v>24973</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
@@ -2503,7 +2503,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>57566</v>
+        <v>24973</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
@@ -2511,7 +2511,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>57468</v>
+        <v>24320</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
@@ -2519,7 +2519,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>57849</v>
+        <v>24298</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
@@ -2527,7 +2527,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>57848</v>
+        <v>24298</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
@@ -2535,7 +2535,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>57849</v>
+        <v>24265</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
@@ -2543,7 +2543,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>58210</v>
+        <v>24308</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
@@ -2551,7 +2551,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>57848</v>
+        <v>24334</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
@@ -2559,7 +2559,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>58003</v>
+        <v>24268</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
@@ -2567,7 +2567,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>57848</v>
+        <v>24335</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
@@ -2575,7 +2575,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>57846</v>
+        <v>24300</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
@@ -2583,7 +2583,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>57846</v>
+        <v>24304</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
@@ -2591,7 +2591,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>57847</v>
+        <v>24314</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
@@ -2599,7 +2599,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>57444</v>
+        <v>24502</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
@@ -2607,7 +2607,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>57847</v>
+        <v>24499</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
@@ -2615,7 +2615,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>58006</v>
+        <v>24502</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
@@ -2623,7 +2623,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>57991</v>
+        <v>24319</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
@@ -2631,7 +2631,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>65183</v>
+        <v>13158</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
@@ -2639,7 +2639,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>65177</v>
+        <v>13478</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
@@ -2647,7 +2647,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>66266</v>
+        <v>13459</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
@@ -2655,7 +2655,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>65425</v>
+        <v>13153</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
@@ -2663,7 +2663,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>65916</v>
+        <v>13557</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
@@ -2671,7 +2671,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>65463</v>
+        <v>13174</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
@@ -2679,7 +2679,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>65431</v>
+        <v>13551</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
@@ -2687,7 +2687,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>65471</v>
+        <v>13180</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
@@ -2695,7 +2695,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>65439</v>
+        <v>13145</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
@@ -2703,7 +2703,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>65532</v>
+        <v>13137</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
@@ -2711,7 +2711,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>65473</v>
+        <v>13159</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
@@ -2719,7 +2719,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>65456</v>
+        <v>13167</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
@@ -2727,7 +2727,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>65459</v>
+        <v>13129</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
@@ -2735,7 +2735,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>65484</v>
+        <v>13177</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
@@ -2743,7 +2743,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>65464</v>
+        <v>13144</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
@@ -2751,7 +2751,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>65434</v>
+        <v>13907</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
@@ -2759,7 +2759,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>66280</v>
+        <v>13186</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
@@ -2767,7 +2767,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>65202</v>
+        <v>13138</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
@@ -2775,7 +2775,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>65441</v>
+        <v>13182</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
@@ -2783,7 +2783,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>65485</v>
+        <v>13552</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
@@ -2791,7 +2791,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>66254</v>
+        <v>13167</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
@@ -2799,7 +2799,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>65404</v>
+        <v>13552</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
@@ -2807,7 +2807,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>66269</v>
+        <v>13164</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
@@ -2815,7 +2815,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>65477</v>
+        <v>13556</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
@@ -2823,7 +2823,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>65454</v>
+        <v>13550</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
@@ -2831,7 +2831,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>60510</v>
+        <v>15881</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
@@ -2839,7 +2839,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>60537</v>
+        <v>15525</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
@@ -2847,7 +2847,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>60489</v>
+        <v>15061</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
@@ -2855,7 +2855,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>60664</v>
+        <v>15521</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
@@ -2863,7 +2863,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>60463</v>
+        <v>15403</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
@@ -2871,7 +2871,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>60650</v>
+        <v>15526</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
@@ -2879,7 +2879,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>60577</v>
+        <v>15913</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
@@ -2887,7 +2887,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>60658</v>
+        <v>15880</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
@@ -2895,7 +2895,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>60655</v>
+        <v>15060</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
@@ -2903,7 +2903,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>60476</v>
+        <v>15529</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
@@ -2911,7 +2911,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>61306</v>
+        <v>15600</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
@@ -2919,7 +2919,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>60525</v>
+        <v>15514</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
@@ -2927,7 +2927,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>60579</v>
+        <v>15913</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
@@ -2935,7 +2935,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>60457</v>
+        <v>15921</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
@@ -2943,7 +2943,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>60589</v>
+        <v>15073</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
@@ -2951,7 +2951,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>60513</v>
+        <v>15535</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
@@ -2959,7 +2959,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>60603</v>
+        <v>15059</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
@@ -2967,7 +2967,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>60651</v>
+        <v>15887</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
@@ -2975,7 +2975,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>60523</v>
+        <v>15409</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
@@ -2983,7 +2983,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>60568</v>
+        <v>15052</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
@@ -2991,7 +2991,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>60585</v>
+        <v>15057</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
@@ -2999,7 +2999,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>61219</v>
+        <v>15050</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
@@ -3007,7 +3007,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>60611</v>
+        <v>15057</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
@@ -3015,7 +3015,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>60455</v>
+        <v>15073</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
@@ -3023,7 +3023,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>60479</v>
+        <v>15530</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
@@ -3031,7 +3031,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>63158</v>
+        <v>22422</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
@@ -3039,7 +3039,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>64327</v>
+        <v>22427</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
@@ -3047,7 +3047,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>63159</v>
+        <v>22450</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
@@ -3055,7 +3055,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>63162</v>
+        <v>22442</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
@@ -3063,7 +3063,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>63291</v>
+        <v>22452</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
@@ -3071,7 +3071,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>63583</v>
+        <v>22963</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
@@ -3079,7 +3079,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>63589</v>
+        <v>22408</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
@@ -3087,7 +3087,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>63150</v>
+        <v>22755</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
@@ -3095,7 +3095,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>63297</v>
+        <v>22114</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
@@ -3103,7 +3103,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>63165</v>
+        <v>22444</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
@@ -3111,7 +3111,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>63140</v>
+        <v>22751</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
@@ -3119,7 +3119,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>64515</v>
+        <v>22436</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
@@ -3127,7 +3127,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>63170</v>
+        <v>22498</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
@@ -3135,7 +3135,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>63592</v>
+        <v>22412</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
@@ -3143,7 +3143,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>63595</v>
+        <v>22464</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
@@ -3151,7 +3151,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>63640</v>
+        <v>22420</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
@@ -3159,7 +3159,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>63297</v>
+        <v>22109</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
@@ -3167,7 +3167,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>63281</v>
+        <v>22465</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
@@ -3175,7 +3175,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>63891</v>
+        <v>22112</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
@@ -3183,7 +3183,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>63151</v>
+        <v>22423</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
@@ -3191,7 +3191,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>64319</v>
+        <v>22426</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
@@ -3199,7 +3199,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>63599</v>
+        <v>22406</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
@@ -3207,7 +3207,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>63627</v>
+        <v>22719</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
@@ -3215,7 +3215,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>63680</v>
+        <v>22959</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
@@ -3223,7 +3223,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>63632</v>
+        <v>22428</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
@@ -3231,7 +3231,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>51421</v>
+        <v>11906</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
@@ -3239,7 +3239,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>51307</v>
+        <v>11360</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
@@ -3247,7 +3247,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>51408</v>
+        <v>11335</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
@@ -3255,7 +3255,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>51197</v>
+        <v>11440</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
@@ -3263,7 +3263,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>51259</v>
+        <v>11462</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
@@ -3271,7 +3271,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>50367</v>
+        <v>11448</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
@@ -3279,7 +3279,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>51269</v>
+        <v>11365</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
@@ -3287,7 +3287,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>51264</v>
+        <v>11374</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
@@ -3295,7 +3295,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>51215</v>
+        <v>11894</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
@@ -3303,7 +3303,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>51196</v>
+        <v>11336</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
@@ -3311,7 +3311,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>51275</v>
+        <v>11269</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
@@ -3319,7 +3319,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>51027</v>
+        <v>11263</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
@@ -3327,7 +3327,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>51007</v>
+        <v>11379</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
@@ -3335,7 +3335,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>51298</v>
+        <v>11259</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
@@ -3343,7 +3343,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>50358</v>
+        <v>11271</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
@@ -3351,7 +3351,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>51286</v>
+        <v>11274</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
@@ -3359,7 +3359,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>51200</v>
+        <v>11252</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
@@ -3367,7 +3367,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>51243</v>
+        <v>11342</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
@@ -3375,7 +3375,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>51250</v>
+        <v>11280</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
@@ -3383,7 +3383,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>51280</v>
+        <v>11427</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
@@ -3391,7 +3391,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>50370</v>
+        <v>11255</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
@@ -3399,7 +3399,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>51291</v>
+        <v>11282</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
@@ -3407,7 +3407,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>51236</v>
+        <v>11408</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
@@ -3415,7 +3415,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>51030</v>
+        <v>11396</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
@@ -3423,7 +3423,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>51191</v>
+        <v>11429</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
@@ -3431,7 +3431,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>55839</v>
+        <v>29687</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
@@ -3439,7 +3439,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>56108</v>
+        <v>29730</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
@@ -3447,7 +3447,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>55839</v>
+        <v>29695</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
@@ -3455,7 +3455,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>55838</v>
+        <v>29726</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
@@ -3463,7 +3463,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>56207</v>
+        <v>29693</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
@@ -3471,7 +3471,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>55837</v>
+        <v>30120</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
@@ -3479,7 +3479,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>55838</v>
+        <v>29595</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
@@ -3487,7 +3487,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>56164</v>
+        <v>29741</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
@@ -3495,7 +3495,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>55837</v>
+        <v>29420</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
@@ -3503,7 +3503,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>56132</v>
+        <v>29248</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
@@ -3511,7 +3511,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>56117</v>
+        <v>30010</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
@@ -3519,7 +3519,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>56168</v>
+        <v>29718</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
@@ -3527,7 +3527,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>55837</v>
+        <v>29667</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
@@ -3535,7 +3535,7 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>55837</v>
+        <v>29796</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
@@ -3543,7 +3543,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>56145</v>
+        <v>29230</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
@@ -3551,7 +3551,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>55835</v>
+        <v>29665</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
@@ -3559,7 +3559,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>56448</v>
+        <v>29677</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
@@ -3567,7 +3567,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>55900</v>
+        <v>29711</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
@@ -3575,7 +3575,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>55836</v>
+        <v>29705</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
@@ -3583,7 +3583,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>55835</v>
+        <v>29700</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
@@ -3591,7 +3591,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>55838</v>
+        <v>29958</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
@@ -3599,7 +3599,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>56127</v>
+        <v>29685</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
@@ -3607,7 +3607,7 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>56083</v>
+        <v>29792</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
@@ -3615,7 +3615,7 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>55835</v>
+        <v>29734</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
@@ -3623,7 +3623,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>56121</v>
+        <v>29431</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
@@ -3631,7 +3631,7 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>52169</v>
+        <v>13017</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
@@ -3639,7 +3639,7 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>52426</v>
+        <v>12430</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
@@ -3647,7 +3647,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>52019</v>
+        <v>12260</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
@@ -3655,7 +3655,7 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>51811</v>
+        <v>12230</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
@@ -3663,7 +3663,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>52234</v>
+        <v>12415</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
@@ -3671,7 +3671,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>52121</v>
+        <v>12232</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
@@ -3679,7 +3679,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>52176</v>
+        <v>12235</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
@@ -3687,7 +3687,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>52115</v>
+        <v>12197</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
@@ -3695,7 +3695,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>52058</v>
+        <v>12856</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
@@ -3703,7 +3703,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>52424</v>
+        <v>12834</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
@@ -3711,7 +3711,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>52161</v>
+        <v>12425</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
@@ -3719,7 +3719,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>52423</v>
+        <v>12224</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
@@ -3727,7 +3727,7 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>51811</v>
+        <v>12236</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
@@ -3735,7 +3735,7 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>52240</v>
+        <v>12559</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
@@ -3743,7 +3743,7 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>52178</v>
+        <v>12564</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
@@ -3751,7 +3751,7 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>52423</v>
+        <v>12897</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
@@ -3759,7 +3759,7 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>52185</v>
+        <v>12246</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
@@ -3767,7 +3767,7 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>52424</v>
+        <v>12238</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
@@ -3775,7 +3775,7 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>52227</v>
+        <v>12242</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
@@ -3783,7 +3783,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>52215</v>
+        <v>12554</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
@@ -3791,7 +3791,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>52221</v>
+        <v>12184</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
@@ -3799,7 +3799,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>52153</v>
+        <v>12252</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
@@ -3807,7 +3807,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>52045</v>
+        <v>12229</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
@@ -3815,7 +3815,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>52148</v>
+        <v>12192</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
@@ -3823,7 +3823,7 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>52422</v>
+        <v>12186</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
@@ -3831,7 +3831,7 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>53145</v>
+        <v>19641</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
@@ -3839,7 +3839,7 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>53429</v>
+        <v>19618</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
@@ -3847,7 +3847,7 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>53149</v>
+        <v>20055</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
@@ -3855,7 +3855,7 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>52941</v>
+        <v>19881</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
@@ -3863,7 +3863,7 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>53081</v>
+        <v>19637</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
@@ -3871,7 +3871,7 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>53097</v>
+        <v>19374</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
@@ -3879,7 +3879,7 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>53026</v>
+        <v>19382</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
@@ -3887,7 +3887,7 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>53101</v>
+        <v>20052</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
@@ -3895,7 +3895,7 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>53233</v>
+        <v>19370</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
@@ -3903,7 +3903,7 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>53428</v>
+        <v>19898</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
@@ -3911,7 +3911,7 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>53428</v>
+        <v>19875</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
@@ -3919,7 +3919,7 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>53463</v>
+        <v>19640</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
@@ -3927,7 +3927,7 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>53056</v>
+        <v>19644</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
@@ -3935,7 +3935,7 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>53118</v>
+        <v>20051</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
@@ -3943,7 +3943,7 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>53091</v>
+        <v>19658</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
@@ -3951,7 +3951,7 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>53077</v>
+        <v>19648</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
@@ -3959,7 +3959,7 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>53107</v>
+        <v>19388</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
@@ -3967,7 +3967,7 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>53426</v>
+        <v>19889</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
@@ -3975,7 +3975,7 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>53112</v>
+        <v>19361</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
@@ -3983,7 +3983,7 @@
         <v>444</v>
       </c>
       <c r="B446">
-        <v>53427</v>
+        <v>20051</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
@@ -3991,7 +3991,7 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>53426</v>
+        <v>19363</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
@@ -3999,7 +3999,7 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>53428</v>
+        <v>19559</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
@@ -4007,7 +4007,7 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>53031</v>
+        <v>19524</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
@@ -4015,7 +4015,7 @@
         <v>448</v>
       </c>
       <c r="B450">
-        <v>53427</v>
+        <v>19651</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
@@ -4023,7 +4023,7 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>53427</v>
+        <v>19649</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
@@ -4031,7 +4031,7 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>54972</v>
+        <v>20366</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
@@ -4039,7 +4039,7 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>54899</v>
+        <v>21059</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
@@ -4047,7 +4047,7 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>54899</v>
+        <v>21059</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
@@ -4055,7 +4055,7 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>54948</v>
+        <v>20877</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
@@ -4063,7 +4063,7 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>55588</v>
+        <v>20868</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
@@ -4071,7 +4071,7 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>54947</v>
+        <v>21058</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
@@ -4079,7 +4079,7 @@
         <v>456</v>
       </c>
       <c r="B458">
-        <v>54971</v>
+        <v>20822</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
@@ -4087,7 +4087,7 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>54975</v>
+        <v>20614</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
@@ -4095,7 +4095,7 @@
         <v>458</v>
       </c>
       <c r="B460">
-        <v>55435</v>
+        <v>20825</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
@@ -4103,7 +4103,7 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>54947</v>
+        <v>20858</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
@@ -4111,7 +4111,7 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>54987</v>
+        <v>20863</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
@@ -4119,7 +4119,7 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>54896</v>
+        <v>20870</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
@@ -4127,7 +4127,7 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>54897</v>
+        <v>20860</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
@@ -4135,7 +4135,7 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>54896</v>
+        <v>20357</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
@@ -4143,7 +4143,7 @@
         <v>464</v>
       </c>
       <c r="B466">
-        <v>55203</v>
+        <v>20853</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
@@ -4151,7 +4151,7 @@
         <v>465</v>
       </c>
       <c r="B467">
-        <v>54972</v>
+        <v>20816</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
@@ -4159,7 +4159,7 @@
         <v>466</v>
       </c>
       <c r="B468">
-        <v>55191</v>
+        <v>20841</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
@@ -4167,7 +4167,7 @@
         <v>467</v>
       </c>
       <c r="B469">
-        <v>54975</v>
+        <v>20350</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
@@ -4175,7 +4175,7 @@
         <v>468</v>
       </c>
       <c r="B470">
-        <v>54937</v>
+        <v>21056</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
@@ -4183,7 +4183,7 @@
         <v>469</v>
       </c>
       <c r="B471">
-        <v>54966</v>
+        <v>20826</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
@@ -4191,7 +4191,7 @@
         <v>470</v>
       </c>
       <c r="B472">
-        <v>54935</v>
+        <v>20823</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
@@ -4199,7 +4199,7 @@
         <v>471</v>
       </c>
       <c r="B473">
-        <v>54942</v>
+        <v>20872</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
@@ -4207,7 +4207,7 @@
         <v>472</v>
       </c>
       <c r="B474">
-        <v>54975</v>
+        <v>20360</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
@@ -4215,7 +4215,7 @@
         <v>473</v>
       </c>
       <c r="B475">
-        <v>55430</v>
+        <v>20345</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
@@ -4223,7 +4223,7 @@
         <v>474</v>
       </c>
       <c r="B476">
-        <v>54968</v>
+        <v>20834</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
@@ -4231,7 +4231,7 @@
         <v>475</v>
       </c>
       <c r="B477">
-        <v>54582</v>
+        <v>11112</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
@@ -4239,7 +4239,7 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>54077</v>
+        <v>10886</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
@@ -4247,7 +4247,7 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>54437</v>
+        <v>10886</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
@@ -4255,7 +4255,7 @@
         <v>478</v>
       </c>
       <c r="B480">
-        <v>54095</v>
+        <v>10454</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
@@ -4263,7 +4263,7 @@
         <v>479</v>
       </c>
       <c r="B481">
-        <v>54219</v>
+        <v>10429</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
@@ -4271,7 +4271,7 @@
         <v>480</v>
       </c>
       <c r="B482">
-        <v>54265</v>
+        <v>10468</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
@@ -4279,7 +4279,7 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>54214</v>
+        <v>11065</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
@@ -4287,7 +4287,7 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>53937</v>
+        <v>10886</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
@@ -4295,7 +4295,7 @@
         <v>483</v>
       </c>
       <c r="B485">
-        <v>53984</v>
+        <v>10440</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
@@ -4303,7 +4303,7 @@
         <v>484</v>
       </c>
       <c r="B486">
-        <v>53931</v>
+        <v>10421</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
@@ -4311,7 +4311,7 @@
         <v>485</v>
       </c>
       <c r="B487">
-        <v>54330</v>
+        <v>10849</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
@@ -4319,7 +4319,7 @@
         <v>486</v>
       </c>
       <c r="B488">
-        <v>54000</v>
+        <v>11106</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
@@ -4327,7 +4327,7 @@
         <v>487</v>
       </c>
       <c r="B489">
-        <v>54082</v>
+        <v>11057</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
@@ -4335,7 +4335,7 @@
         <v>488</v>
       </c>
       <c r="B490">
-        <v>54215</v>
+        <v>10467</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
@@ -4343,7 +4343,7 @@
         <v>489</v>
       </c>
       <c r="B491">
-        <v>54424</v>
+        <v>10424</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
@@ -4351,7 +4351,7 @@
         <v>490</v>
       </c>
       <c r="B492">
-        <v>54015</v>
+        <v>10469</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
@@ -4359,7 +4359,7 @@
         <v>491</v>
       </c>
       <c r="B493">
-        <v>53934</v>
+        <v>11105</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
@@ -4367,7 +4367,7 @@
         <v>492</v>
       </c>
       <c r="B494">
-        <v>54227</v>
+        <v>11105</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
@@ -4375,7 +4375,7 @@
         <v>493</v>
       </c>
       <c r="B495">
-        <v>54008</v>
+        <v>10441</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
@@ -4383,7 +4383,7 @@
         <v>494</v>
       </c>
       <c r="B496">
-        <v>54001</v>
+        <v>10398</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
@@ -4391,7 +4391,7 @@
         <v>495</v>
       </c>
       <c r="B497">
-        <v>53925</v>
+        <v>10429</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
@@ -4399,7 +4399,7 @@
         <v>496</v>
       </c>
       <c r="B498">
-        <v>53984</v>
+        <v>10432</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
@@ -4407,7 +4407,7 @@
         <v>497</v>
       </c>
       <c r="B499">
-        <v>54195</v>
+        <v>11062</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
@@ -4415,7 +4415,7 @@
         <v>498</v>
       </c>
       <c r="B500">
-        <v>53925</v>
+        <v>10994</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
@@ -4423,7 +4423,7 @@
         <v>499</v>
       </c>
       <c r="B501">
-        <v>54217</v>
+        <v>11105</v>
       </c>
     </row>
   </sheetData>
@@ -4468,7 +4468,7 @@
         <v>8</v>
       </c>
       <c r="E2">
-        <v>72.058</v>
+        <v>31.76</v>
       </c>
     </row>
   </sheetData>

--- a/benchmark/zk/Transactions_25tps_500tts_10.195.9.11.xlsx
+++ b/benchmark/zk/Transactions_25tps_500tts_10.195.9.11.xlsx
@@ -35,10 +35,10 @@
     <t>Total Time</t>
   </si>
   <si>
-    <t>20013.496 ms</t>
+    <t>28008.018 ms</t>
   </si>
   <si>
-    <t>15.74307304785894 tx/s</t>
+    <t>12.596679515279773 tx/s</t>
   </si>
 </sst>
 </file>
@@ -431,7 +431,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26574</v>
+        <v>35252</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -439,7 +439,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>26169</v>
+        <v>35255</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -447,7 +447,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>26170</v>
+        <v>35256</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -455,7 +455,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>26143</v>
+        <v>35274</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -463,7 +463,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>26191</v>
+        <v>35291</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -471,7 +471,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>26544</v>
+        <v>35265</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -479,7 +479,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>26149</v>
+        <v>35130</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -487,7 +487,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>26192</v>
+        <v>35257</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -495,7 +495,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26569</v>
+        <v>35261</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -503,7 +503,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26149</v>
+        <v>35137</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -511,7 +511,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26170</v>
+        <v>35140</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -519,7 +519,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26151</v>
+        <v>35080</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -527,7 +527,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26142</v>
+        <v>35079</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -535,7 +535,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26568</v>
+        <v>35086</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -543,7 +543,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26153</v>
+        <v>35105</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -551,7 +551,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26172</v>
+        <v>35276</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -559,7 +559,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26565</v>
+        <v>35109</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -567,7 +567,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26175</v>
+        <v>35097</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -575,7 +575,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26138</v>
+        <v>35124</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -583,7 +583,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26157</v>
+        <v>35279</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -591,7 +591,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26159</v>
+        <v>35126</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -599,7 +599,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26176</v>
+        <v>35281</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -607,7 +607,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26179</v>
+        <v>35082</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -615,7 +615,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26518</v>
+        <v>35129</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -623,7 +623,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>26183</v>
+        <v>35265</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -631,7 +631,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>28135</v>
+        <v>34315</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -639,7 +639,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>28133</v>
+        <v>34286</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -647,7 +647,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>28133</v>
+        <v>34337</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -655,7 +655,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>28646</v>
+        <v>34316</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -663,7 +663,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>28594</v>
+        <v>34146</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -671,7 +671,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>28628</v>
+        <v>34291</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -679,7 +679,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>28648</v>
+        <v>34345</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -687,7 +687,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>28130</v>
+        <v>34345</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -695,7 +695,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>28131</v>
+        <v>34316</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -703,7 +703,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>28649</v>
+        <v>34324</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -711,7 +711,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>28131</v>
+        <v>34335</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -719,7 +719,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>28129</v>
+        <v>34306</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -727,7 +727,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>28585</v>
+        <v>34289</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -735,7 +735,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>28586</v>
+        <v>34161</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -743,7 +743,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>28645</v>
+        <v>34144</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -751,7 +751,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>28131</v>
+        <v>34319</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -759,7 +759,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>28647</v>
+        <v>34317</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -767,7 +767,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>28654</v>
+        <v>34152</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -775,7 +775,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>28628</v>
+        <v>34323</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -783,7 +783,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>28088</v>
+        <v>34289</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -791,7 +791,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>28642</v>
+        <v>34291</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -799,7 +799,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>28642</v>
+        <v>34295</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -807,7 +807,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>28129</v>
+        <v>34153</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -815,7 +815,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>28649</v>
+        <v>34131</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -823,7 +823,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>28126</v>
+        <v>34332</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -831,7 +831,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>23413</v>
+        <v>37210</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -839,7 +839,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>23349</v>
+        <v>37040</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -847,7 +847,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>23339</v>
+        <v>37107</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -855,7 +855,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>23364</v>
+        <v>37114</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -863,7 +863,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>23403</v>
+        <v>37039</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -871,7 +871,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>23405</v>
+        <v>37041</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -879,7 +879,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>23505</v>
+        <v>37438</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -887,7 +887,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>23353</v>
+        <v>37187</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -895,7 +895,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>23379</v>
+        <v>37104</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -903,7 +903,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>23369</v>
+        <v>37210</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -911,7 +911,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>23382</v>
+        <v>37213</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -919,7 +919,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>23386</v>
+        <v>37198</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -927,7 +927,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>23359</v>
+        <v>37197</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -935,7 +935,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>23388</v>
+        <v>37106</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -943,7 +943,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>23395</v>
+        <v>37039</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -951,7 +951,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>23355</v>
+        <v>37156</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -959,7 +959,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>23501</v>
+        <v>37008</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -967,7 +967,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>23376</v>
+        <v>37138</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -975,7 +975,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>23374</v>
+        <v>37139</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -983,7 +983,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>23342</v>
+        <v>37203</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -991,7 +991,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>23397</v>
+        <v>37036</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -999,7 +999,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>23355</v>
+        <v>37062</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -1007,7 +1007,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>23332</v>
+        <v>37168</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -1015,7 +1015,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>23709</v>
+        <v>37035</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -1023,7 +1023,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>23407</v>
+        <v>37214</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -1031,7 +1031,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>25244</v>
+        <v>29411</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -1039,7 +1039,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>25227</v>
+        <v>29407</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -1047,7 +1047,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>25196</v>
+        <v>29418</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -1055,7 +1055,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>25204</v>
+        <v>29256</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -1063,7 +1063,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>25264</v>
+        <v>29423</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -1071,7 +1071,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>25192</v>
+        <v>29437</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -1079,7 +1079,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>25248</v>
+        <v>29383</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1087,7 +1087,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>25251</v>
+        <v>29443</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -1095,7 +1095,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>25255</v>
+        <v>29375</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -1103,7 +1103,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>25237</v>
+        <v>29380</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -1111,7 +1111,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>25243</v>
+        <v>29432</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -1119,7 +1119,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>25730</v>
+        <v>29417</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -1127,7 +1127,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>25214</v>
+        <v>29367</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -1135,7 +1135,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>25204</v>
+        <v>29391</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -1143,7 +1143,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>25211</v>
+        <v>29370</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -1151,7 +1151,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>25256</v>
+        <v>29409</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -1159,7 +1159,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>25208</v>
+        <v>29384</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -1167,7 +1167,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>25188</v>
+        <v>29400</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -1175,7 +1175,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>25221</v>
+        <v>29439</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -1183,7 +1183,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>25236</v>
+        <v>29241</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -1191,7 +1191,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>25217</v>
+        <v>29428</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -1199,7 +1199,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>25196</v>
+        <v>29395</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -1207,7 +1207,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>25503</v>
+        <v>29386</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -1215,7 +1215,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>25259</v>
+        <v>29392</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -1223,7 +1223,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>25238</v>
+        <v>29423</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -1231,7 +1231,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>18679</v>
+        <v>32148</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -1239,7 +1239,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>18658</v>
+        <v>32158</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -1247,7 +1247,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>18720</v>
+        <v>32161</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -1255,7 +1255,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>18727</v>
+        <v>32296</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -1263,7 +1263,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>18681</v>
+        <v>32101</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -1271,7 +1271,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>18722</v>
+        <v>32195</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -1279,7 +1279,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>18730</v>
+        <v>32120</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -1287,7 +1287,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>18688</v>
+        <v>32102</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -1295,7 +1295,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>18671</v>
+        <v>32197</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -1303,7 +1303,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>18660</v>
+        <v>32123</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -1311,7 +1311,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>18668</v>
+        <v>32171</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -1319,7 +1319,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>18674</v>
+        <v>32152</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -1327,7 +1327,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>18736</v>
+        <v>32130</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -1335,7 +1335,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>18691</v>
+        <v>32755</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -1343,7 +1343,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>18704</v>
+        <v>32126</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -1351,7 +1351,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>18715</v>
+        <v>32179</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -1359,7 +1359,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>18731</v>
+        <v>32164</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -1367,7 +1367,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>18707</v>
+        <v>32132</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -1375,7 +1375,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>18664</v>
+        <v>32136</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -1383,7 +1383,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>18697</v>
+        <v>32108</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -1391,7 +1391,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>18387</v>
+        <v>32203</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -1399,7 +1399,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>18695</v>
+        <v>32139</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -1407,7 +1407,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>18699</v>
+        <v>32112</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -1415,7 +1415,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>18682</v>
+        <v>32170</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -1423,7 +1423,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>18710</v>
+        <v>32164</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -1431,7 +1431,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>17791</v>
+        <v>30292</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -1439,7 +1439,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>17806</v>
+        <v>30354</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -1447,7 +1447,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>17401</v>
+        <v>30300</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -1455,7 +1455,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>17812</v>
+        <v>30822</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -1463,7 +1463,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>17746</v>
+        <v>30366</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -1471,7 +1471,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>17800</v>
+        <v>30828</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -1479,7 +1479,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>17656</v>
+        <v>30307</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -1487,7 +1487,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>17799</v>
+        <v>30294</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -1495,7 +1495,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>17749</v>
+        <v>30256</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -1503,7 +1503,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>17764</v>
+        <v>30295</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -1511,7 +1511,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>17771</v>
+        <v>30362</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -1519,7 +1519,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>17807</v>
+        <v>30372</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -1527,7 +1527,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>17755</v>
+        <v>30823</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -1535,7 +1535,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>17389</v>
+        <v>30304</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -1543,7 +1543,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>17800</v>
+        <v>30356</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -1551,7 +1551,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>17396</v>
+        <v>30349</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -1559,7 +1559,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>17757</v>
+        <v>30363</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -1567,7 +1567,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>17777</v>
+        <v>30339</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -1575,7 +1575,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>17767</v>
+        <v>30362</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -1583,7 +1583,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>17782</v>
+        <v>30823</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -1591,7 +1591,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>17773</v>
+        <v>30335</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -1599,7 +1599,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>17760</v>
+        <v>30367</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -1607,7 +1607,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>17740</v>
+        <v>30314</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -1615,7 +1615,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>17742</v>
+        <v>30325</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -1623,7 +1623,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>17738</v>
+        <v>30319</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -1631,7 +1631,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>21750</v>
+        <v>27556</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -1639,7 +1639,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>21760</v>
+        <v>27534</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -1647,7 +1647,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>21884</v>
+        <v>27580</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -1655,7 +1655,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>21791</v>
+        <v>27570</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -1663,7 +1663,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>21787</v>
+        <v>27534</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -1671,7 +1671,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>21773</v>
+        <v>27553</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -1679,7 +1679,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>21762</v>
+        <v>27536</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -1687,7 +1687,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>21207</v>
+        <v>27561</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -1695,7 +1695,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>21801</v>
+        <v>27538</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -1703,7 +1703,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>21767</v>
+        <v>27559</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -1711,7 +1711,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>21758</v>
+        <v>27517</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -1719,7 +1719,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>21807</v>
+        <v>27581</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -1727,7 +1727,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>21776</v>
+        <v>28018</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -1735,7 +1735,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>21753</v>
+        <v>27532</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -1743,7 +1743,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>21347</v>
+        <v>27543</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -1751,7 +1751,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>21781</v>
+        <v>27547</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -1759,7 +1759,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>21817</v>
+        <v>27585</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -1767,7 +1767,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>21817</v>
+        <v>27530</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -1775,7 +1775,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>21343</v>
+        <v>27586</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -1783,7 +1783,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>21816</v>
+        <v>27593</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -1791,7 +1791,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>21902</v>
+        <v>27564</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -1799,7 +1799,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>21782</v>
+        <v>27538</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -1807,7 +1807,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>21775</v>
+        <v>27503</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -1815,7 +1815,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>21793</v>
+        <v>28016</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
@@ -1823,7 +1823,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>21796</v>
+        <v>27572</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -1831,7 +1831,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>27134</v>
+        <v>36554</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
@@ -1839,7 +1839,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>27583</v>
+        <v>36442</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -1847,7 +1847,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>27133</v>
+        <v>36078</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -1855,7 +1855,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>27617</v>
+        <v>36051</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -1863,7 +1863,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>27127</v>
+        <v>36253</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
@@ -1871,7 +1871,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>27719</v>
+        <v>36233</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
@@ -1879,7 +1879,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>27589</v>
+        <v>36050</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -1887,7 +1887,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>27608</v>
+        <v>36437</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -1895,7 +1895,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>27132</v>
+        <v>37111</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
@@ -1903,7 +1903,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>27959</v>
+        <v>36397</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
@@ -1911,7 +1911,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>27593</v>
+        <v>36389</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -1919,7 +1919,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>27596</v>
+        <v>36049</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -1927,7 +1927,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>27131</v>
+        <v>36243</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
@@ -1935,7 +1935,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>27131</v>
+        <v>36061</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
@@ -1943,7 +1943,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>27132</v>
+        <v>36057</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -1951,7 +1951,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>27598</v>
+        <v>36250</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -1959,7 +1959,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>27610</v>
+        <v>36366</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -1967,7 +1967,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>27519</v>
+        <v>36056</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -1975,7 +1975,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>27123</v>
+        <v>36079</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -1983,7 +1983,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>27575</v>
+        <v>36438</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -1991,7 +1991,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>27144</v>
+        <v>36540</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -1999,7 +1999,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>27607</v>
+        <v>36214</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -2007,7 +2007,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>27580</v>
+        <v>36066</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -2015,7 +2015,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>27600</v>
+        <v>36226</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
@@ -2023,7 +2023,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>27587</v>
+        <v>36059</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -2031,7 +2031,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>16406</v>
+        <v>31229</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -2039,7 +2039,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>16063</v>
+        <v>31221</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -2047,7 +2047,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>16882</v>
+        <v>31254</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -2055,7 +2055,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>16844</v>
+        <v>31243</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -2063,7 +2063,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>16923</v>
+        <v>31233</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
@@ -2071,7 +2071,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>16809</v>
+        <v>31245</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -2079,7 +2079,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>16516</v>
+        <v>31240</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
@@ -2087,7 +2087,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>16846</v>
+        <v>31250</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
@@ -2095,7 +2095,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>16886</v>
+        <v>31267</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
@@ -2103,7 +2103,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>16849</v>
+        <v>31786</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -2111,7 +2111,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>16830</v>
+        <v>31288</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -2119,7 +2119,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>16851</v>
+        <v>31281</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
@@ -2127,7 +2127,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>16874</v>
+        <v>31185</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
@@ -2135,7 +2135,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>16834</v>
+        <v>31254</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
@@ -2143,7 +2143,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>16856</v>
+        <v>32067</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
@@ -2151,7 +2151,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>16919</v>
+        <v>31212</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
@@ -2159,7 +2159,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>16877</v>
+        <v>31208</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
@@ -2167,7 +2167,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>16876</v>
+        <v>31200</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
@@ -2175,7 +2175,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>16517</v>
+        <v>31288</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
@@ -2183,7 +2183,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>16835</v>
+        <v>31273</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
@@ -2191,7 +2191,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>16861</v>
+        <v>31212</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
@@ -2199,7 +2199,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>16878</v>
+        <v>31214</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
@@ -2207,7 +2207,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>16822</v>
+        <v>31220</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
@@ -2215,7 +2215,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>16807</v>
+        <v>31231</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
@@ -2223,7 +2223,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>16515</v>
+        <v>31275</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
@@ -2231,7 +2231,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>14881</v>
+        <v>33056</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
@@ -2239,7 +2239,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>14129</v>
+        <v>33073</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
@@ -2247,7 +2247,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>14075</v>
+        <v>34087</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
@@ -2255,7 +2255,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>14085</v>
+        <v>33086</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
@@ -2263,7 +2263,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>14105</v>
+        <v>33162</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
@@ -2271,7 +2271,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>14131</v>
+        <v>33361</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
@@ -2279,7 +2279,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>14088</v>
+        <v>33065</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
@@ -2287,7 +2287,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>14112</v>
+        <v>33078</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
@@ -2295,7 +2295,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>14102</v>
+        <v>33089</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
@@ -2303,7 +2303,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>14540</v>
+        <v>33407</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
@@ -2311,7 +2311,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>14077</v>
+        <v>33073</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
@@ -2319,7 +2319,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>14121</v>
+        <v>33073</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
@@ -2327,7 +2327,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>14117</v>
+        <v>33079</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
@@ -2335,7 +2335,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>14090</v>
+        <v>33214</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
@@ -2343,7 +2343,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>14455</v>
+        <v>33059</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
@@ -2351,7 +2351,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>14109</v>
+        <v>33728</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
@@ -2359,7 +2359,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>14124</v>
+        <v>33044</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
@@ -2367,7 +2367,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>14891</v>
+        <v>33352</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
@@ -2375,7 +2375,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>14908</v>
+        <v>33048</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
@@ -2383,7 +2383,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>14079</v>
+        <v>33064</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
@@ -2391,7 +2391,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>14095</v>
+        <v>33090</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
@@ -2399,7 +2399,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>14539</v>
+        <v>33346</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
@@ -2407,7 +2407,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>14906</v>
+        <v>33413</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
@@ -2415,7 +2415,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>14069</v>
+        <v>33408</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
@@ -2423,7 +2423,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>14091</v>
+        <v>33416</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
@@ -2431,7 +2431,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>24976</v>
+        <v>26596</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
@@ -2439,7 +2439,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>24265</v>
+        <v>26630</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
@@ -2447,7 +2447,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>24263</v>
+        <v>26672</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
@@ -2455,7 +2455,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>24315</v>
+        <v>26673</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
@@ -2463,7 +2463,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>24724</v>
+        <v>26596</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
@@ -2471,7 +2471,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>24330</v>
+        <v>26641</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
@@ -2479,7 +2479,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>24506</v>
+        <v>26608</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
@@ -2487,7 +2487,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>24331</v>
+        <v>26599</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
@@ -2495,7 +2495,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>24973</v>
+        <v>26672</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
@@ -2503,7 +2503,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>24973</v>
+        <v>26601</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
@@ -2511,7 +2511,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>24320</v>
+        <v>26660</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
@@ -2519,7 +2519,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>24298</v>
+        <v>26605</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
@@ -2527,7 +2527,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>24298</v>
+        <v>27053</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
@@ -2535,7 +2535,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>24265</v>
+        <v>26642</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
@@ -2543,7 +2543,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>24308</v>
+        <v>26659</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
@@ -2551,7 +2551,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>24334</v>
+        <v>26621</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
@@ -2559,7 +2559,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>24268</v>
+        <v>26676</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
@@ -2567,7 +2567,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>24335</v>
+        <v>26666</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
@@ -2575,7 +2575,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>24300</v>
+        <v>26635</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
@@ -2583,7 +2583,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>24304</v>
+        <v>26629</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
@@ -2591,7 +2591,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>24314</v>
+        <v>26669</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
@@ -2599,7 +2599,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>24502</v>
+        <v>26344</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
@@ -2607,7 +2607,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>24499</v>
+        <v>26610</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
@@ -2615,7 +2615,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>24502</v>
+        <v>26656</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
@@ -2623,7 +2623,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>24319</v>
+        <v>26613</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
@@ -2631,7 +2631,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>13158</v>
+        <v>18767</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
@@ -2639,7 +2639,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>13478</v>
+        <v>18963</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
@@ -2647,7 +2647,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>13459</v>
+        <v>18623</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
@@ -2655,7 +2655,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>13153</v>
+        <v>18481</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
@@ -2663,7 +2663,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>13557</v>
+        <v>18493</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
@@ -2671,7 +2671,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>13174</v>
+        <v>18498</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
@@ -2679,7 +2679,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>13551</v>
+        <v>18523</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
@@ -2687,7 +2687,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>13180</v>
+        <v>18668</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
@@ -2695,7 +2695,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>13145</v>
+        <v>18961</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
@@ -2703,7 +2703,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>13137</v>
+        <v>18648</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
@@ -2711,7 +2711,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>13159</v>
+        <v>18601</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
@@ -2719,7 +2719,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>13167</v>
+        <v>18481</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
@@ -2727,7 +2727,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>13129</v>
+        <v>18634</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
@@ -2735,7 +2735,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>13177</v>
+        <v>18383</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
@@ -2743,7 +2743,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>13144</v>
+        <v>18623</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
@@ -2751,7 +2751,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>13907</v>
+        <v>18641</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
@@ -2759,7 +2759,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>13186</v>
+        <v>18649</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
@@ -2767,7 +2767,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>13138</v>
+        <v>18983</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
@@ -2775,7 +2775,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>13182</v>
+        <v>18983</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
@@ -2783,7 +2783,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>13552</v>
+        <v>18567</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
@@ -2791,7 +2791,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>13167</v>
+        <v>18956</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
@@ -2799,7 +2799,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>13552</v>
+        <v>18482</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
@@ -2807,7 +2807,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>13164</v>
+        <v>18505</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
@@ -2815,7 +2815,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>13556</v>
+        <v>18683</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
@@ -2823,7 +2823,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>13550</v>
+        <v>18501</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
@@ -2831,7 +2831,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>15881</v>
+        <v>28443</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
@@ -2839,7 +2839,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>15525</v>
+        <v>28465</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
@@ -2847,7 +2847,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>15061</v>
+        <v>28484</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
@@ -2855,7 +2855,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>15521</v>
+        <v>28449</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
@@ -2863,7 +2863,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>15403</v>
+        <v>28455</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
@@ -2871,7 +2871,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>15526</v>
+        <v>28479</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
@@ -2879,7 +2879,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>15913</v>
+        <v>28611</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
@@ -2887,7 +2887,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>15880</v>
+        <v>28450</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
@@ -2895,7 +2895,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>15060</v>
+        <v>28485</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
@@ -2903,7 +2903,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>15529</v>
+        <v>28444</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
@@ -2911,7 +2911,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>15600</v>
+        <v>28458</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
@@ -2919,7 +2919,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>15514</v>
+        <v>28461</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
@@ -2927,7 +2927,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>15913</v>
+        <v>28758</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
@@ -2935,7 +2935,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>15921</v>
+        <v>29069</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
@@ -2943,7 +2943,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>15073</v>
+        <v>29068</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
@@ -2951,7 +2951,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>15535</v>
+        <v>28466</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
@@ -2959,7 +2959,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>15059</v>
+        <v>28470</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
@@ -2967,7 +2967,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>15887</v>
+        <v>28614</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
@@ -2975,7 +2975,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>15409</v>
+        <v>28500</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
@@ -2983,7 +2983,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>15052</v>
+        <v>28504</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
@@ -2991,7 +2991,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>15057</v>
+        <v>28472</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
@@ -2999,7 +2999,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>15050</v>
+        <v>29022</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
@@ -3007,7 +3007,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>15057</v>
+        <v>28496</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
@@ -3015,7 +3015,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>15073</v>
+        <v>28498</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
@@ -3023,7 +3023,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>15530</v>
+        <v>28498</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
@@ -3031,7 +3031,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>22422</v>
+        <v>19682</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
@@ -3039,7 +3039,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>22427</v>
+        <v>19557</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
@@ -3047,7 +3047,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>22450</v>
+        <v>19978</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
@@ -3055,7 +3055,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>22442</v>
+        <v>19471</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
@@ -3063,7 +3063,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>22452</v>
+        <v>19419</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
@@ -3071,7 +3071,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>22963</v>
+        <v>19573</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
@@ -3079,7 +3079,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>22408</v>
+        <v>19483</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
@@ -3087,7 +3087,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>22755</v>
+        <v>19577</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
@@ -3095,7 +3095,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>22114</v>
+        <v>19999</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
@@ -3103,7 +3103,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>22444</v>
+        <v>19674</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
@@ -3111,7 +3111,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>22751</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
@@ -3119,7 +3119,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>22436</v>
+        <v>20001</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
@@ -3127,7 +3127,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>22498</v>
+        <v>19472</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
@@ -3135,7 +3135,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>22412</v>
+        <v>19475</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
@@ -3143,7 +3143,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>22464</v>
+        <v>19489</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
@@ -3151,7 +3151,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>22420</v>
+        <v>19432</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
@@ -3159,7 +3159,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>22109</v>
+        <v>19484</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
@@ -3167,7 +3167,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>22465</v>
+        <v>19976</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
@@ -3175,7 +3175,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>22112</v>
+        <v>19468</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
@@ -3183,7 +3183,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>22423</v>
+        <v>19976</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
@@ -3191,7 +3191,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>22426</v>
+        <v>19624</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
@@ -3199,7 +3199,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>22406</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
@@ -3207,7 +3207,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>22719</v>
+        <v>19476</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
@@ -3215,7 +3215,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>22959</v>
+        <v>19974</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
@@ -3223,7 +3223,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>22428</v>
+        <v>19783</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
@@ -3231,7 +3231,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>11906</v>
+        <v>25726</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
@@ -3239,7 +3239,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>11360</v>
+        <v>25748</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
@@ -3247,7 +3247,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>11335</v>
+        <v>25718</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
@@ -3255,7 +3255,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>11440</v>
+        <v>25675</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
@@ -3263,7 +3263,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>11462</v>
+        <v>25746</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
@@ -3271,7 +3271,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>11448</v>
+        <v>25760</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
@@ -3279,7 +3279,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>11365</v>
+        <v>25771</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
@@ -3287,7 +3287,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>11374</v>
+        <v>25765</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
@@ -3295,7 +3295,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>11894</v>
+        <v>26048</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
@@ -3303,7 +3303,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>11336</v>
+        <v>25721</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
@@ -3311,7 +3311,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>11269</v>
+        <v>25714</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
@@ -3319,7 +3319,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>11263</v>
+        <v>25755</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
@@ -3327,7 +3327,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>11379</v>
+        <v>25702</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
@@ -3335,7 +3335,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>11259</v>
+        <v>25728</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
@@ -3343,7 +3343,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>11271</v>
+        <v>25706</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
@@ -3351,7 +3351,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>11274</v>
+        <v>25767</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
@@ -3359,7 +3359,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>11252</v>
+        <v>26047</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
@@ -3367,7 +3367,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>11342</v>
+        <v>25687</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
@@ -3375,7 +3375,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>11280</v>
+        <v>25735</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
@@ -3383,7 +3383,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>11427</v>
+        <v>26047</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
@@ -3391,7 +3391,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>11255</v>
+        <v>25732</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
@@ -3399,7 +3399,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>11282</v>
+        <v>25681</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
@@ -3407,7 +3407,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>11408</v>
+        <v>25709</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
@@ -3415,7 +3415,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>11396</v>
+        <v>26047</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
@@ -3423,7 +3423,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>11429</v>
+        <v>25676</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
@@ -3431,7 +3431,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>29687</v>
+        <v>20465</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
@@ -3439,7 +3439,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>29730</v>
+        <v>20628</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
@@ -3447,7 +3447,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>29695</v>
+        <v>21010</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
@@ -3455,7 +3455,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>29726</v>
+        <v>20695</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
@@ -3463,7 +3463,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>29693</v>
+        <v>21030</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
@@ -3471,7 +3471,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>30120</v>
+        <v>21009</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
@@ -3479,7 +3479,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>29595</v>
+        <v>20698</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
@@ -3487,7 +3487,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>29741</v>
+        <v>20454</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
@@ -3495,7 +3495,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>29420</v>
+        <v>21007</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
@@ -3503,7 +3503,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>29248</v>
+        <v>20628</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
@@ -3511,7 +3511,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>30010</v>
+        <v>21007</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
@@ -3519,7 +3519,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>29718</v>
+        <v>20439</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
@@ -3527,7 +3527,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>29667</v>
+        <v>21028</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
@@ -3535,7 +3535,7 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>29796</v>
+        <v>20613</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
@@ -3543,7 +3543,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>29230</v>
+        <v>20621</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
@@ -3551,7 +3551,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>29665</v>
+        <v>20456</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
@@ -3559,7 +3559,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>29677</v>
+        <v>21027</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
@@ -3567,7 +3567,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>29711</v>
+        <v>20475</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
@@ -3575,7 +3575,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>29705</v>
+        <v>20437</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
@@ -3583,7 +3583,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>29700</v>
+        <v>21005</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
@@ -3591,7 +3591,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>29958</v>
+        <v>21005</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
@@ -3599,7 +3599,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>29685</v>
+        <v>20638</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
@@ -3607,7 +3607,7 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>29792</v>
+        <v>21025</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
@@ -3615,7 +3615,7 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>29734</v>
+        <v>20676</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
@@ -3623,7 +3623,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>29431</v>
+        <v>21025</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
@@ -3631,7 +3631,7 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>13017</v>
+        <v>21411</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
@@ -3639,7 +3639,7 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>12430</v>
+        <v>22051</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
@@ -3647,7 +3647,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>12260</v>
+        <v>22030</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
@@ -3655,7 +3655,7 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>12230</v>
+        <v>21439</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
@@ -3663,7 +3663,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>12415</v>
+        <v>22029</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
@@ -3671,7 +3671,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>12232</v>
+        <v>22029</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
@@ -3679,7 +3679,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>12235</v>
+        <v>21619</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
@@ -3687,7 +3687,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>12197</v>
+        <v>22050</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
@@ -3695,7 +3695,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>12856</v>
+        <v>21442</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
@@ -3703,7 +3703,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>12834</v>
+        <v>21414</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
@@ -3711,7 +3711,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>12425</v>
+        <v>21410</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
@@ -3719,7 +3719,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>12224</v>
+        <v>21634</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
@@ -3727,7 +3727,7 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>12236</v>
+        <v>21428</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
@@ -3735,7 +3735,7 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>12559</v>
+        <v>22026</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
@@ -3743,7 +3743,7 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>12564</v>
+        <v>21389</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
@@ -3751,7 +3751,7 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>12897</v>
+        <v>22038</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
@@ -3759,7 +3759,7 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>12246</v>
+        <v>21412</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
@@ -3767,7 +3767,7 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>12238</v>
+        <v>22036</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
@@ -3775,7 +3775,7 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>12242</v>
+        <v>21406</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
@@ -3783,7 +3783,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>12554</v>
+        <v>22035</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
@@ -3791,7 +3791,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>12184</v>
+        <v>22011</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
@@ -3799,7 +3799,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>12252</v>
+        <v>22033</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
@@ -3807,7 +3807,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>12229</v>
+        <v>21386</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
@@ -3815,7 +3815,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>12192</v>
+        <v>21593</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
@@ -3823,7 +3823,7 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>12186</v>
+        <v>22033</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
@@ -3831,7 +3831,7 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>19641</v>
+        <v>22594</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
@@ -3839,7 +3839,7 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>19618</v>
+        <v>23079</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
@@ -3847,7 +3847,7 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>20055</v>
+        <v>22386</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
@@ -3855,7 +3855,7 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>19881</v>
+        <v>22394</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
@@ -3863,7 +3863,7 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>19637</v>
+        <v>23034</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
@@ -3871,7 +3871,7 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>19374</v>
+        <v>22649</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
@@ -3879,7 +3879,7 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>19382</v>
+        <v>22399</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
@@ -3887,7 +3887,7 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>20052</v>
+        <v>22377</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
@@ -3895,7 +3895,7 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>19370</v>
+        <v>22662</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
@@ -3903,7 +3903,7 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>19898</v>
+        <v>22600</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
@@ -3911,7 +3911,7 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>19875</v>
+        <v>22989</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
@@ -3919,7 +3919,7 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>19640</v>
+        <v>22402</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
@@ -3927,7 +3927,7 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>19644</v>
+        <v>23033</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
@@ -3935,7 +3935,7 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>20051</v>
+        <v>22567</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
@@ -3943,7 +3943,7 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>19658</v>
+        <v>23009</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
@@ -3951,7 +3951,7 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>19648</v>
+        <v>22375</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
@@ -3959,7 +3959,7 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>19388</v>
+        <v>22328</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
@@ -3967,7 +3967,7 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>19889</v>
+        <v>22366</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
@@ -3975,7 +3975,7 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>19361</v>
+        <v>23032</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
@@ -3983,7 +3983,7 @@
         <v>444</v>
       </c>
       <c r="B446">
-        <v>20051</v>
+        <v>22388</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
@@ -3991,7 +3991,7 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>19363</v>
+        <v>22370</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
@@ -3999,7 +3999,7 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>19559</v>
+        <v>23077</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
@@ -4007,7 +4007,7 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>19524</v>
+        <v>22988</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
@@ -4015,7 +4015,7 @@
         <v>448</v>
       </c>
       <c r="B450">
-        <v>19651</v>
+        <v>23077</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
@@ -4023,7 +4023,7 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>19649</v>
+        <v>22381</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
@@ -4031,7 +4031,7 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>20366</v>
+        <v>23811</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
@@ -4039,7 +4039,7 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>21059</v>
+        <v>24083</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
@@ -4047,7 +4047,7 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>21059</v>
+        <v>23567</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
@@ -4055,7 +4055,7 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>20877</v>
+        <v>24038</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
@@ -4063,7 +4063,7 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>20868</v>
+        <v>23587</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
@@ -4071,7 +4071,7 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>21058</v>
+        <v>23993</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
@@ -4079,7 +4079,7 @@
         <v>456</v>
       </c>
       <c r="B458">
-        <v>20822</v>
+        <v>23992</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
@@ -4087,7 +4087,7 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>20614</v>
+        <v>24037</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
@@ -4095,7 +4095,7 @@
         <v>458</v>
       </c>
       <c r="B460">
-        <v>20825</v>
+        <v>23864</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
@@ -4103,7 +4103,7 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>20858</v>
+        <v>23825</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
@@ -4111,7 +4111,7 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>20863</v>
+        <v>24081</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
@@ -4119,7 +4119,7 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>20870</v>
+        <v>23814</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
@@ -4127,7 +4127,7 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>20860</v>
+        <v>23831</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
@@ -4135,7 +4135,7 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>20357</v>
+        <v>24081</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
@@ -4143,7 +4143,7 @@
         <v>464</v>
       </c>
       <c r="B466">
-        <v>20853</v>
+        <v>24037</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
@@ -4151,7 +4151,7 @@
         <v>465</v>
       </c>
       <c r="B467">
-        <v>20816</v>
+        <v>24036</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
@@ -4159,7 +4159,7 @@
         <v>466</v>
       </c>
       <c r="B468">
-        <v>20841</v>
+        <v>24036</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
@@ -4167,7 +4167,7 @@
         <v>467</v>
       </c>
       <c r="B469">
-        <v>20350</v>
+        <v>24036</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
@@ -4175,7 +4175,7 @@
         <v>468</v>
       </c>
       <c r="B470">
-        <v>21056</v>
+        <v>24083</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
@@ -4183,7 +4183,7 @@
         <v>469</v>
       </c>
       <c r="B471">
-        <v>20826</v>
+        <v>23863</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
@@ -4191,7 +4191,7 @@
         <v>470</v>
       </c>
       <c r="B472">
-        <v>20823</v>
+        <v>23817</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
@@ -4199,7 +4199,7 @@
         <v>471</v>
       </c>
       <c r="B473">
-        <v>20872</v>
+        <v>24036</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
@@ -4207,7 +4207,7 @@
         <v>472</v>
       </c>
       <c r="B474">
-        <v>20360</v>
+        <v>24035</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
@@ -4215,7 +4215,7 @@
         <v>473</v>
       </c>
       <c r="B475">
-        <v>20345</v>
+        <v>24080</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
@@ -4223,7 +4223,7 @@
         <v>474</v>
       </c>
       <c r="B476">
-        <v>20834</v>
+        <v>23652</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
@@ -4231,7 +4231,7 @@
         <v>475</v>
       </c>
       <c r="B477">
-        <v>11112</v>
+        <v>24741</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
@@ -4239,7 +4239,7 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>10886</v>
+        <v>24755</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
@@ -4247,7 +4247,7 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>10886</v>
+        <v>24773</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
@@ -4255,7 +4255,7 @@
         <v>478</v>
       </c>
       <c r="B480">
-        <v>10454</v>
+        <v>24608</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
@@ -4263,7 +4263,7 @@
         <v>479</v>
       </c>
       <c r="B481">
-        <v>10429</v>
+        <v>24805</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
@@ -4271,7 +4271,7 @@
         <v>480</v>
       </c>
       <c r="B482">
-        <v>10468</v>
+        <v>24786</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
@@ -4279,7 +4279,7 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>11065</v>
+        <v>24801</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
@@ -4287,7 +4287,7 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>10886</v>
+        <v>24793</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
@@ -4295,7 +4295,7 @@
         <v>483</v>
       </c>
       <c r="B485">
-        <v>10440</v>
+        <v>25042</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
@@ -4303,7 +4303,7 @@
         <v>484</v>
       </c>
       <c r="B486">
-        <v>10421</v>
+        <v>24760</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
@@ -4311,7 +4311,7 @@
         <v>485</v>
       </c>
       <c r="B487">
-        <v>10849</v>
+        <v>24748</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
@@ -4319,7 +4319,7 @@
         <v>486</v>
       </c>
       <c r="B488">
-        <v>11106</v>
+        <v>24556</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
@@ -4327,7 +4327,7 @@
         <v>487</v>
       </c>
       <c r="B489">
-        <v>11057</v>
+        <v>24773</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
@@ -4335,7 +4335,7 @@
         <v>488</v>
       </c>
       <c r="B490">
-        <v>10467</v>
+        <v>24741</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
@@ -4343,7 +4343,7 @@
         <v>489</v>
       </c>
       <c r="B491">
-        <v>10424</v>
+        <v>24766</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
@@ -4351,7 +4351,7 @@
         <v>490</v>
       </c>
       <c r="B492">
-        <v>10469</v>
+        <v>24787</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
@@ -4359,7 +4359,7 @@
         <v>491</v>
       </c>
       <c r="B493">
-        <v>11105</v>
+        <v>24805</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
@@ -4367,7 +4367,7 @@
         <v>492</v>
       </c>
       <c r="B494">
-        <v>11105</v>
+        <v>24794</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
@@ -4375,7 +4375,7 @@
         <v>493</v>
       </c>
       <c r="B495">
-        <v>10441</v>
+        <v>24775</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
@@ -4383,7 +4383,7 @@
         <v>494</v>
       </c>
       <c r="B496">
-        <v>10398</v>
+        <v>24741</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
@@ -4391,7 +4391,7 @@
         <v>495</v>
       </c>
       <c r="B497">
-        <v>10429</v>
+        <v>24755</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
@@ -4399,7 +4399,7 @@
         <v>496</v>
       </c>
       <c r="B498">
-        <v>10432</v>
+        <v>24730</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
@@ -4407,7 +4407,7 @@
         <v>497</v>
       </c>
       <c r="B499">
-        <v>11062</v>
+        <v>25086</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
@@ -4415,7 +4415,7 @@
         <v>498</v>
       </c>
       <c r="B500">
-        <v>10994</v>
+        <v>25014</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
@@ -4423,7 +4423,7 @@
         <v>499</v>
       </c>
       <c r="B501">
-        <v>11105</v>
+        <v>24758</v>
       </c>
     </row>
   </sheetData>
@@ -4468,7 +4468,7 @@
         <v>8</v>
       </c>
       <c r="E2">
-        <v>31.76</v>
+        <v>39.693</v>
       </c>
     </row>
   </sheetData>
